--- a/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
+++ b/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17120" tabRatio="730" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="16000" tabRatio="730" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -59,6 +59,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="仿宋"/>
       <charset val="134"/>
       <color rgb="FFFF0000"/>
@@ -71,30 +83,16 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
@@ -108,7 +106,22 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,9 +148,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,18 +164,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,8 +181,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +190,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,14 +210,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -226,9 +225,16 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -241,12 +247,12 @@
     </font>
     <font>
       <name val="微软雅黑"/>
-      <color rgb="00ff0000"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="微软雅黑"/>
-      <color rgb="00000000"/>
+      <color rgb="00ff0000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -289,13 +295,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,19 +397,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,37 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,31 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +574,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -607,36 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -658,6 +649,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -670,152 +676,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,17 +867,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -885,37 +906,23 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -926,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -966,37 +976,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,24 +1414,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="inlineStr">
+      <c r="A1" s="49" t="inlineStr">
         <is>
           <t>测试规则（红色表示要参数化）</t>
         </is>
       </c>
-      <c r="B1" s="48" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t>说明</t>
         </is>
       </c>
-      <c r="C1" s="47" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>实例</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="inlineStr">
+      <c r="A2" s="51" t="inlineStr">
         <is>
           <t>r2</t>
         </is>
@@ -1424,17 +1440,17 @@
       <c r="C2" s="15" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="inlineStr">
+      <c r="A3" s="51" t="inlineStr">
         <is>
           <t>delete from T_ASSESS_INFO where ID_CARD = {'110101196407281506'}</t>
         </is>
       </c>
-      <c r="B3" s="50" t="inlineStr">
+      <c r="B3" s="52" t="inlineStr">
         <is>
           <t>删除评估表中对应身份证的记录</t>
         </is>
       </c>
-      <c r="C3" s="51" t="inlineStr">
+      <c r="C3" s="53" t="inlineStr">
         <is>
           <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10'
 r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10' .and. idcard="123"</t>
@@ -1442,12 +1458,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="inlineStr">
+      <c r="A4" s="54" t="inlineStr">
         <is>
           <t>update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I10' where IDCARD={'110101196407281506'}</t>
         </is>
       </c>
-      <c r="B4" s="50" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>更新规则要求</t>
         </is>
@@ -1455,12 +1471,12 @@
       <c r="C4" s="10" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="inlineStr">
+      <c r="A5" s="51" t="inlineStr">
         <is>
           <t>跑新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/{110101196407281506}</t>
         </is>
       </c>
-      <c r="B5" s="50" t="inlineStr">
+      <c r="B5" s="52" t="inlineStr">
         <is>
           <t>跑新增评估接口，评估表中生成记录</t>
         </is>
@@ -1468,12 +1484,12 @@
       <c r="C5" s="10" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>varID = select id from T_ASSESS_INFO where ID_CARD = {110101196407281506}</t>
         </is>
       </c>
-      <c r="B6" s="50" t="inlineStr">
+      <c r="B6" s="52" t="inlineStr">
         <is>
           <t>获取评估id</t>
         </is>
@@ -1481,12 +1497,12 @@
       <c r="C6" s="10" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>delete from T_ASSESS_RULE_RECORD where ASSESS_ID = {varID} and RULE_CODE= {'PG_Age001'}</t>
         </is>
       </c>
-      <c r="B7" s="50" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>删除评估规则结果表中对应评估ID的记录</t>
         </is>
@@ -1494,12 +1510,12 @@
       <c r="C7" s="10" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="inlineStr">
+      <c r="A8" s="51" t="inlineStr">
         <is>
           <t>跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/{varID}</t>
         </is>
       </c>
-      <c r="B8" s="50" t="inlineStr">
+      <c r="B8" s="52" t="inlineStr">
         <is>
           <t>对评估id跑规则接口</t>
         </is>
@@ -1507,12 +1523,12 @@
       <c r="C8" s="10" t="n"/>
     </row>
     <row r="9" ht="31" customHeight="1" s="16">
-      <c r="A9" s="49" t="inlineStr">
+      <c r="A9" s="51" t="inlineStr">
         <is>
           <t>select count(*) from T_ASSESS_RULE_RECORD where ASSESS_ID ={varID} and RULE_CODE= {'PG_Age001'}</t>
         </is>
       </c>
-      <c r="B9" s="50" t="inlineStr">
+      <c r="B9" s="52" t="inlineStr">
         <is>
           <t>评估规则结果表中断言记录是否存在，且只能生成1条记录</t>
         </is>
@@ -1525,7 +1541,7 @@
       <c r="C10" s="15" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="inlineStr">
+      <c r="A11" s="51" t="inlineStr">
         <is>
           <t>r1（不包括家族历）</t>
         </is>
@@ -1534,12 +1550,12 @@
       <c r="C11" s="15" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="51" t="inlineStr">
         <is>
           <t>varID, varID_CARD= select top(1) ID,ID_CARD from T_ASSESS_INFO</t>
         </is>
       </c>
-      <c r="B12" s="50" t="inlineStr">
+      <c r="B12" s="52" t="inlineStr">
         <is>
           <t>评估表里自动获取第一条记录的身份证和ID</t>
         </is>
@@ -1551,12 +1567,12 @@
       </c>
     </row>
     <row r="13" ht="31" customHeight="1" s="16">
-      <c r="A13" s="53" t="inlineStr">
+      <c r="A13" s="55" t="inlineStr">
         <is>
           <t>update T_ASSESS_INFO set AGE=55 where IDCARD={varID_CARD}</t>
         </is>
       </c>
-      <c r="B13" s="50" t="inlineStr">
+      <c r="B13" s="52" t="inlineStr">
         <is>
           <t>更新规则要求</t>
         </is>
@@ -1564,12 +1580,12 @@
       <c r="C13" s="10" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="inlineStr">
+      <c r="A14" s="51" t="inlineStr">
         <is>
           <t>delete from T_ASSESS_RULE_RECORD where ASSESS_ID = {varID} and RULE_CODE= {'PG_Age001'}</t>
         </is>
       </c>
-      <c r="B14" s="50" t="inlineStr">
+      <c r="B14" s="52" t="inlineStr">
         <is>
           <t>删除评估规则结果表中对应评估ID的记录</t>
         </is>
@@ -1577,12 +1593,12 @@
       <c r="C14" s="10" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="inlineStr">
+      <c r="A15" s="51" t="inlineStr">
         <is>
           <t>跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/{varID}</t>
         </is>
       </c>
-      <c r="B15" s="50" t="inlineStr">
+      <c r="B15" s="52" t="inlineStr">
         <is>
           <t>对评估id跑规则接口</t>
         </is>
@@ -1590,12 +1606,12 @@
       <c r="C15" s="10" t="n"/>
     </row>
     <row r="16" ht="31" customHeight="1" s="16">
-      <c r="A16" s="49" t="inlineStr">
+      <c r="A16" s="51" t="inlineStr">
         <is>
           <t>select count(*) from T_ASSESS_RULE_RECORD where ASSESS_ID ={varID} and RULE_CODE= {'PG_Age001'}</t>
         </is>
       </c>
-      <c r="B16" s="50" t="inlineStr">
+      <c r="B16" s="52" t="inlineStr">
         <is>
           <t>评估规则结果表中断言记录是否存在，且只能生成1条记录</t>
         </is>
@@ -1608,13 +1624,13 @@
       <c r="C17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
+      <c r="A18" s="51" t="inlineStr">
         <is>
           <t>r3(健康评估 - 既往史)</t>
         </is>
       </c>
       <c r="B18" s="15" t="n"/>
-      <c r="C18" s="51" t="inlineStr">
+      <c r="C18" s="53" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='O24',
 r3,T_ASSESS_PREVIES_HISTORY,MSG_CODE='' . and. ASSOCIATION_TYPE=02,ASSESS_ID=?</t>
@@ -1622,7 +1638,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="inlineStr">
+      <c r="A19" s="51" t="inlineStr">
         <is>
           <t>varID, varID_CARD= select top(1) ID,ID_CARD from T_ASSESS_INFO</t>
         </is>
@@ -1631,7 +1647,7 @@
       <c r="C19" s="10" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="inlineStr">
+      <c r="A20" s="54" t="inlineStr">
         <is>
           <t>update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='024' where IDCARD={varID_CARD}</t>
         </is>
@@ -1640,7 +1656,7 @@
       <c r="C20" s="10" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="inlineStr">
+      <c r="A21" s="54" t="inlineStr">
         <is>
           <t>update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='024' where ID={varID}</t>
         </is>
@@ -1649,7 +1665,7 @@
       <c r="C21" s="10" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="inlineStr">
+      <c r="A22" s="51" t="inlineStr">
         <is>
           <t>跑新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/{varID_CARD}</t>
         </is>
@@ -1658,7 +1674,7 @@
       <c r="C22" s="10" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="inlineStr">
+      <c r="A23" s="51" t="inlineStr">
         <is>
           <t>delete from T_ASSESS_RULE_RECORD where ASSESS_ID = {varID} and RULE_CODE= {'PG_Age001'}</t>
         </is>
@@ -1667,7 +1683,7 @@
       <c r="C23" s="10" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="inlineStr">
+      <c r="A24" s="51" t="inlineStr">
         <is>
           <t>跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/{varID}</t>
         </is>
@@ -1676,7 +1692,7 @@
       <c r="C24" s="10" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="inlineStr">
+      <c r="A25" s="51" t="inlineStr">
         <is>
           <t>select count(*) from T_ASSESS_RULE_RECORD where ASSESS_ID ={varID} and RULE_CODE= {'PG_Age001'}</t>
         </is>
@@ -1714,20 +1730,20 @@
       <c r="C31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="inlineStr">
+      <c r="A32" s="51" t="inlineStr">
         <is>
           <t>delete from T_ASSESS_INFO where ID_CARD = '110101196407281506'</t>
         </is>
       </c>
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="49" t="inlineStr">
+      <c r="C32" s="51" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10',HALOPHILIA_CODE=2</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="52" t="inlineStr">
+      <c r="A33" s="54" t="inlineStr">
         <is>
           <t>update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I10' where IDCARD = '110101196407281506'</t>
         </is>
@@ -1735,7 +1751,7 @@
       <c r="B33" s="15" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="inlineStr">
+      <c r="A34" s="51" t="inlineStr">
         <is>
           <t>跑新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/110101196407281506"</t>
         </is>
@@ -1743,7 +1759,7 @@
       <c r="B34" s="15" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="52" t="inlineStr">
+      <c r="A35" s="54" t="inlineStr">
         <is>
           <t>update T_ASSESS_INFO set HALOPHILIA_CODE=2 where ID_CARD = 110101196407281506</t>
         </is>
@@ -1751,7 +1767,7 @@
       <c r="B35" s="15" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="inlineStr">
+      <c r="A36" s="51" t="inlineStr">
         <is>
           <t>select id from T_ASSESS_INFO where ID_CARD = 110101196407281506</t>
         </is>
@@ -1759,7 +1775,7 @@
       <c r="B36" s="15" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="inlineStr">
+      <c r="A37" s="51" t="inlineStr">
         <is>
           <t>跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/{ID}</t>
         </is>
@@ -1767,7 +1783,7 @@
       <c r="B37" s="15" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="49" t="inlineStr">
+      <c r="A38" s="51" t="inlineStr">
         <is>
           <t>select * from T_ASSESS_RULE_RECORD where ASSESS_ID ={ID} and RULE_CODE= {PG_Age001}</t>
         </is>
@@ -1793,33 +1809,33 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="0"/>
   <cols>
-    <col width="20.8333333333333" customWidth="1" style="16" min="2" max="2"/>
+    <col width="24.4416666666667" customWidth="1" style="16" min="2" max="2"/>
     <col width="28.75" customWidth="1" style="16" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="16">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>疾病评估规则编码</t>
         </is>
       </c>
-      <c r="B1" s="40" t="inlineStr">
+      <c r="B1" s="42" t="inlineStr">
         <is>
           <t>评估疾病名称</t>
         </is>
       </c>
-      <c r="C1" s="41" t="inlineStr">
+      <c r="C1" s="43" t="inlineStr">
         <is>
           <t>自动化测试身份证</t>
         </is>
       </c>
-      <c r="D1" s="42" t="inlineStr">
+      <c r="D1" s="44" t="inlineStr">
         <is>
           <t>sql脚本</t>
         </is>
@@ -1836,18 +1852,18 @@
           <t>YH_JB001</t>
         </is>
       </c>
-      <c r="B2" s="43" t="inlineStr">
+      <c r="B2" s="45" t="inlineStr">
         <is>
           <t>高血压已患</t>
         </is>
       </c>
-      <c r="C2" s="44" t="inlineStr">
+      <c r="C2" s="46" t="inlineStr">
         <is>
           <t>310101202308070001</t>
         </is>
       </c>
-      <c r="D2" s="44" t="n"/>
-      <c r="E2" s="46" t="n"/>
+      <c r="D2" s="46" t="n"/>
+      <c r="E2" s="48" t="n"/>
     </row>
     <row r="3" ht="34" customHeight="1" s="16">
       <c r="A3" s="4" t="inlineStr">
@@ -1855,18 +1871,18 @@
           <t>YH_JB002</t>
         </is>
       </c>
-      <c r="B3" s="43" t="inlineStr">
-        <is>
-          <t>2型糖尿病已患</t>
-        </is>
-      </c>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="45" t="inlineStr">
+        <is>
+          <t>糖尿病已患</t>
+        </is>
+      </c>
+      <c r="C3" s="46" t="inlineStr">
         <is>
           <t>310101202308070002</t>
         </is>
       </c>
-      <c r="D3" s="44" t="n"/>
-      <c r="E3" s="46" t="n"/>
+      <c r="D3" s="46" t="n"/>
+      <c r="E3" s="48" t="n"/>
     </row>
     <row r="4" ht="34" customHeight="1" s="16">
       <c r="A4" s="4" t="inlineStr">
@@ -1874,18 +1890,18 @@
           <t>YH_JB003</t>
         </is>
       </c>
-      <c r="B4" s="43" t="inlineStr">
+      <c r="B4" s="45" t="inlineStr">
         <is>
           <t>脑卒中已患</t>
         </is>
       </c>
-      <c r="C4" s="44" t="inlineStr">
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>310101202308070003</t>
         </is>
       </c>
-      <c r="D4" s="44" t="n"/>
-      <c r="E4" s="46" t="n"/>
+      <c r="D4" s="46" t="n"/>
+      <c r="E4" s="48" t="n"/>
     </row>
     <row r="5" ht="34" customHeight="1" s="16">
       <c r="A5" s="4" t="inlineStr">
@@ -1893,18 +1909,18 @@
           <t>YH_JB004</t>
         </is>
       </c>
-      <c r="B5" s="43" t="inlineStr">
+      <c r="B5" s="45" t="inlineStr">
         <is>
           <t>慢性肾病已患</t>
         </is>
       </c>
-      <c r="C5" s="44" t="inlineStr">
+      <c r="C5" s="46" t="inlineStr">
         <is>
           <t>310101202308070004</t>
         </is>
       </c>
-      <c r="D5" s="44" t="n"/>
-      <c r="E5" s="46" t="n"/>
+      <c r="D5" s="46" t="n"/>
+      <c r="E5" s="48" t="n"/>
     </row>
     <row r="6" ht="34" customHeight="1" s="16">
       <c r="A6" s="4" t="inlineStr">
@@ -1912,18 +1928,18 @@
           <t>YH_JB005</t>
         </is>
       </c>
-      <c r="B6" s="43" t="inlineStr">
+      <c r="B6" s="45" t="inlineStr">
         <is>
           <t>慢性阻塞性肺疾病已患</t>
         </is>
       </c>
-      <c r="C6" s="44" t="inlineStr">
+      <c r="C6" s="46" t="inlineStr">
         <is>
           <t>310101202308070005</t>
         </is>
       </c>
-      <c r="D6" s="44" t="n"/>
-      <c r="E6" s="46" t="n"/>
+      <c r="D6" s="46" t="n"/>
+      <c r="E6" s="48" t="n"/>
     </row>
     <row r="7" ht="34" customHeight="1" s="16">
       <c r="A7" s="4" t="inlineStr">
@@ -1931,18 +1947,18 @@
           <t>YH_JB006</t>
         </is>
       </c>
-      <c r="B7" s="43" t="inlineStr">
+      <c r="B7" s="45" t="inlineStr">
         <is>
           <t>肺癌已患</t>
         </is>
       </c>
-      <c r="C7" s="44" t="inlineStr">
+      <c r="C7" s="46" t="inlineStr">
         <is>
           <t>310101202308070006</t>
         </is>
       </c>
-      <c r="D7" s="44" t="n"/>
-      <c r="E7" s="46" t="n"/>
+      <c r="D7" s="46" t="n"/>
+      <c r="E7" s="48" t="n"/>
     </row>
     <row r="8" ht="34" customHeight="1" s="16">
       <c r="A8" s="4" t="inlineStr">
@@ -1950,18 +1966,18 @@
           <t>YH_JB007</t>
         </is>
       </c>
-      <c r="B8" s="43" t="inlineStr">
+      <c r="B8" s="45" t="inlineStr">
         <is>
           <t>结直肠癌已患</t>
         </is>
       </c>
-      <c r="C8" s="44" t="inlineStr">
+      <c r="C8" s="46" t="inlineStr">
         <is>
           <t>310101202308070007</t>
         </is>
       </c>
-      <c r="D8" s="44" t="n"/>
-      <c r="E8" s="46" t="n"/>
+      <c r="D8" s="46" t="n"/>
+      <c r="E8" s="48" t="n"/>
     </row>
     <row r="9" ht="34" customHeight="1" s="16">
       <c r="A9" s="4" t="inlineStr">
@@ -1969,18 +1985,18 @@
           <t>YH_JB008</t>
         </is>
       </c>
-      <c r="B9" s="43" t="inlineStr">
+      <c r="B9" s="45" t="inlineStr">
         <is>
           <t>乳腺癌已患</t>
         </is>
       </c>
-      <c r="C9" s="44" t="inlineStr">
+      <c r="C9" s="46" t="inlineStr">
         <is>
           <t>310101202308070008</t>
         </is>
       </c>
-      <c r="D9" s="44" t="n"/>
-      <c r="E9" s="46" t="n"/>
+      <c r="D9" s="46" t="n"/>
+      <c r="E9" s="48" t="n"/>
     </row>
     <row r="10" ht="34" customHeight="1" s="16">
       <c r="A10" s="4" t="inlineStr">
@@ -1988,18 +2004,18 @@
           <t>YH_JB009</t>
         </is>
       </c>
-      <c r="B10" s="43" t="inlineStr">
+      <c r="B10" s="45" t="inlineStr">
         <is>
           <t>肝癌已患</t>
         </is>
       </c>
-      <c r="C10" s="44" t="inlineStr">
+      <c r="C10" s="46" t="inlineStr">
         <is>
           <t>310101202308070009</t>
         </is>
       </c>
-      <c r="D10" s="44" t="n"/>
-      <c r="E10" s="46" t="n"/>
+      <c r="D10" s="46" t="n"/>
+      <c r="E10" s="48" t="n"/>
     </row>
     <row r="11" ht="34" customHeight="1" s="16">
       <c r="A11" s="4" t="inlineStr">
@@ -2007,18 +2023,18 @@
           <t>YH_JB010</t>
         </is>
       </c>
-      <c r="B11" s="43" t="inlineStr">
+      <c r="B11" s="45" t="inlineStr">
         <is>
           <t>胃癌已患</t>
         </is>
       </c>
-      <c r="C11" s="44" t="inlineStr">
+      <c r="C11" s="46" t="inlineStr">
         <is>
           <t>310101202308070010</t>
         </is>
       </c>
-      <c r="D11" s="44" t="n"/>
-      <c r="E11" s="46" t="n"/>
+      <c r="D11" s="46" t="n"/>
+      <c r="E11" s="48" t="n"/>
     </row>
     <row r="12" ht="34" customHeight="1" s="16">
       <c r="A12" s="4" t="inlineStr">
@@ -2026,18 +2042,18 @@
           <t>YH_JB011</t>
         </is>
       </c>
-      <c r="B12" s="43" t="inlineStr">
+      <c r="B12" s="45" t="inlineStr">
         <is>
           <t>宫颈癌已患</t>
         </is>
       </c>
-      <c r="C12" s="44" t="inlineStr">
+      <c r="C12" s="46" t="inlineStr">
         <is>
           <t>310101202308070011</t>
         </is>
       </c>
-      <c r="D12" s="44" t="n"/>
-      <c r="E12" s="46" t="n"/>
+      <c r="D12" s="46" t="n"/>
+      <c r="E12" s="48" t="n"/>
     </row>
     <row r="13" ht="34" customHeight="1" s="16">
       <c r="A13" s="6" t="inlineStr">
@@ -2050,13 +2066,13 @@
           <t>高血压高危</t>
         </is>
       </c>
-      <c r="C13" s="44" t="inlineStr">
+      <c r="C13" s="46" t="inlineStr">
         <is>
           <t>410101202308070001</t>
         </is>
       </c>
-      <c r="D13" s="44" t="n"/>
-      <c r="E13" s="46" t="n"/>
+      <c r="D13" s="46" t="n"/>
+      <c r="E13" s="48" t="n"/>
     </row>
     <row r="14" ht="34" customHeight="1" s="16">
       <c r="A14" s="6" t="inlineStr">
@@ -2066,16 +2082,16 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>2型糖尿病高危</t>
-        </is>
-      </c>
-      <c r="C14" s="44" t="inlineStr">
+          <t>糖尿病高危</t>
+        </is>
+      </c>
+      <c r="C14" s="46" t="inlineStr">
         <is>
           <t>410101202308070002</t>
         </is>
       </c>
-      <c r="D14" s="44" t="n"/>
-      <c r="E14" s="46" t="n"/>
+      <c r="D14" s="46" t="n"/>
+      <c r="E14" s="48" t="n"/>
     </row>
     <row r="15" ht="34" customHeight="1" s="16">
       <c r="A15" s="4" t="inlineStr">
@@ -2088,13 +2104,13 @@
           <t>脑卒中高危</t>
         </is>
       </c>
-      <c r="C15" s="44" t="inlineStr">
+      <c r="C15" s="46" t="inlineStr">
         <is>
           <t>410101202308070003</t>
         </is>
       </c>
-      <c r="D15" s="44" t="n"/>
-      <c r="E15" s="46" t="n"/>
+      <c r="D15" s="46" t="n"/>
+      <c r="E15" s="48" t="n"/>
     </row>
     <row r="16" ht="34" customHeight="1" s="16">
       <c r="A16" s="4" t="inlineStr">
@@ -2102,18 +2118,18 @@
           <t>GW_JB004</t>
         </is>
       </c>
-      <c r="B16" s="45" t="inlineStr">
+      <c r="B16" s="47" t="inlineStr">
         <is>
           <t>慢性肾脏病高危</t>
         </is>
       </c>
-      <c r="C16" s="44" t="inlineStr">
+      <c r="C16" s="46" t="inlineStr">
         <is>
           <t>410101202308070004</t>
         </is>
       </c>
-      <c r="D16" s="44" t="n"/>
-      <c r="E16" s="46" t="n"/>
+      <c r="D16" s="46" t="n"/>
+      <c r="E16" s="48" t="n"/>
     </row>
     <row r="17" ht="34" customHeight="1" s="16">
       <c r="A17" s="4" t="inlineStr">
@@ -2121,18 +2137,18 @@
           <t>GW_JB005</t>
         </is>
       </c>
-      <c r="B17" s="45" t="inlineStr">
+      <c r="B17" s="47" t="inlineStr">
         <is>
           <t>慢性阻塞性肺疾病高危</t>
         </is>
       </c>
-      <c r="C17" s="44" t="inlineStr">
+      <c r="C17" s="46" t="inlineStr">
         <is>
           <t>410101202308070005</t>
         </is>
       </c>
-      <c r="D17" s="44" t="n"/>
-      <c r="E17" s="46" t="n"/>
+      <c r="D17" s="46" t="n"/>
+      <c r="E17" s="48" t="n"/>
     </row>
     <row r="18" ht="34" customHeight="1" s="16">
       <c r="A18" s="4" t="inlineStr">
@@ -2140,18 +2156,18 @@
           <t>GW_JB006</t>
         </is>
       </c>
-      <c r="B18" s="45" t="inlineStr">
+      <c r="B18" s="47" t="inlineStr">
         <is>
           <t>肺癌高危</t>
         </is>
       </c>
-      <c r="C18" s="44" t="inlineStr">
+      <c r="C18" s="46" t="inlineStr">
         <is>
           <t>410101202308070006</t>
         </is>
       </c>
-      <c r="D18" s="44" t="n"/>
-      <c r="E18" s="46" t="n"/>
+      <c r="D18" s="46" t="n"/>
+      <c r="E18" s="48" t="n"/>
     </row>
     <row r="19" ht="34" customHeight="1" s="16">
       <c r="A19" s="4" t="inlineStr">
@@ -2159,18 +2175,18 @@
           <t>GW_JB007</t>
         </is>
       </c>
-      <c r="B19" s="45" t="inlineStr">
+      <c r="B19" s="47" t="inlineStr">
         <is>
           <t>结直肠癌高危</t>
         </is>
       </c>
-      <c r="C19" s="44" t="inlineStr">
+      <c r="C19" s="46" t="inlineStr">
         <is>
           <t>410101202308070007</t>
         </is>
       </c>
-      <c r="D19" s="44" t="n"/>
-      <c r="E19" s="46" t="n"/>
+      <c r="D19" s="46" t="n"/>
+      <c r="E19" s="48" t="n"/>
     </row>
     <row r="20" ht="34" customHeight="1" s="16">
       <c r="A20" s="4" t="inlineStr">
@@ -2178,18 +2194,18 @@
           <t>GW_JB008</t>
         </is>
       </c>
-      <c r="B20" s="45" t="inlineStr">
+      <c r="B20" s="47" t="inlineStr">
         <is>
           <t>乳腺癌高危</t>
         </is>
       </c>
-      <c r="C20" s="44" t="inlineStr">
+      <c r="C20" s="46" t="inlineStr">
         <is>
           <t>410101202308070008</t>
         </is>
       </c>
-      <c r="D20" s="44" t="n"/>
-      <c r="E20" s="46" t="n"/>
+      <c r="D20" s="46" t="n"/>
+      <c r="E20" s="48" t="n"/>
     </row>
     <row r="21" ht="34" customHeight="1" s="16">
       <c r="A21" s="4" t="inlineStr">
@@ -2197,18 +2213,18 @@
           <t>GW_JB009</t>
         </is>
       </c>
-      <c r="B21" s="45" t="inlineStr">
+      <c r="B21" s="47" t="inlineStr">
         <is>
           <t>肝癌高危</t>
         </is>
       </c>
-      <c r="C21" s="44" t="inlineStr">
+      <c r="C21" s="46" t="inlineStr">
         <is>
           <t>410101202308070009</t>
         </is>
       </c>
-      <c r="D21" s="44" t="n"/>
-      <c r="E21" s="46" t="n"/>
+      <c r="D21" s="46" t="n"/>
+      <c r="E21" s="48" t="n"/>
     </row>
     <row r="22" ht="34" customHeight="1" s="16">
       <c r="A22" s="4" t="inlineStr">
@@ -2216,18 +2232,18 @@
           <t>GW_JB010</t>
         </is>
       </c>
-      <c r="B22" s="45" t="inlineStr">
+      <c r="B22" s="47" t="inlineStr">
         <is>
           <t>胃癌高危高危</t>
         </is>
       </c>
-      <c r="C22" s="44" t="inlineStr">
+      <c r="C22" s="46" t="inlineStr">
         <is>
           <t>410101202308070010</t>
         </is>
       </c>
-      <c r="D22" s="44" t="n"/>
-      <c r="E22" s="46" t="n"/>
+      <c r="D22" s="46" t="n"/>
+      <c r="E22" s="48" t="n"/>
     </row>
     <row r="23" ht="34" customHeight="1" s="16">
       <c r="A23" s="4" t="inlineStr">
@@ -2235,18 +2251,18 @@
           <t>GW_JB011</t>
         </is>
       </c>
-      <c r="B23" s="45" t="inlineStr">
+      <c r="B23" s="47" t="inlineStr">
         <is>
           <t>宫颈癌高危</t>
         </is>
       </c>
-      <c r="C23" s="44" t="inlineStr">
+      <c r="C23" s="46" t="inlineStr">
         <is>
           <t>410101202308070011</t>
         </is>
       </c>
-      <c r="D23" s="44" t="n"/>
-      <c r="E23" s="46" t="n"/>
+      <c r="D23" s="46" t="n"/>
+      <c r="E23" s="48" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,16 +2275,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="0"/>
   <cols>
-    <col width="67.5" customWidth="1" style="16" min="2" max="2"/>
-    <col width="53.6083333333333" customWidth="1" style="16" min="3" max="3"/>
+    <col width="36.3916666666667" customWidth="1" style="16" min="2" max="2"/>
+    <col width="47.9083333333333" customWidth="1" style="32" min="3" max="3"/>
     <col width="30.9666666666667" customWidth="1" style="16" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -2283,42 +2299,42 @@
           <t>备注信息</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>测试规则</t>
         </is>
       </c>
-      <c r="D1" s="28" t="inlineStr">
+      <c r="D1" s="34" t="inlineStr">
         <is>
           <t>测试人员</t>
         </is>
       </c>
-      <c r="E1" s="36" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>评估规则编码</t>
         </is>
       </c>
-      <c r="F1" s="37" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>分类</t>
         </is>
       </c>
-      <c r="G1" s="37" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>规则名称</t>
         </is>
       </c>
-      <c r="H1" s="37" t="inlineStr">
+      <c r="H1" s="38" t="inlineStr">
         <is>
           <t>评估规则详细描述</t>
         </is>
       </c>
-      <c r="I1" s="38" t="inlineStr">
+      <c r="I1" s="39" t="inlineStr">
         <is>
           <t>评估因素判断规则</t>
         </is>
       </c>
-      <c r="J1" s="37" t="inlineStr">
+      <c r="J1" s="38" t="inlineStr">
         <is>
           <t>评估结果</t>
         </is>
@@ -2346,14 +2362,14 @@
       <c r="AA1" s="8" t="n"/>
     </row>
     <row r="2" ht="34" customHeight="1" s="16">
-      <c r="A2" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B2" s="54" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:24:39</t>
+      <c r="A2" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B2" s="56" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:22:18</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2413,19 +2429,19 @@
       <c r="AA2" s="15" t="n"/>
     </row>
     <row r="3" ht="34" customHeight="1" s="16">
-      <c r="A3" s="59" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B3" s="60" t="inlineStr">
-        <is>
-          <t>warning，不适用r1测试规则，未执行！</t>
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B3" s="56" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:22:21</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_FAMILY_HISTORY,ASSESS_ID,DISEASE_NAME='高血压'</t>
+          <t>r6,'高血压'</t>
         </is>
       </c>
       <c r="D3" s="6" t="n"/>
@@ -2478,14 +2494,14 @@
       <c r="AA3" s="15" t="n"/>
     </row>
     <row r="4" ht="34" customHeight="1" s="16">
-      <c r="A4" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B4" s="32" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:39</t>
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B4" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:29</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2543,14 +2559,14 @@
       <c r="AA4" s="15" t="n"/>
     </row>
     <row r="5" ht="34" customHeight="1" s="16">
-      <c r="A5" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B5" s="32" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:40</t>
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B5" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:30</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -2608,14 +2624,14 @@
       <c r="AA5" s="15" t="n"/>
     </row>
     <row r="6" ht="34" customHeight="1" s="16">
-      <c r="A6" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B6" s="32" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:41</t>
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B6" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:31</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -2673,14 +2689,14 @@
       <c r="AA6" s="15" t="n"/>
     </row>
     <row r="7" ht="34" customHeight="1" s="16">
-      <c r="A7" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B7" s="32" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:41</t>
+      <c r="A7" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B7" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:32</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -2738,14 +2754,14 @@
       <c r="AA7" s="15" t="n"/>
     </row>
     <row r="8" ht="34" customHeight="1" s="16">
-      <c r="A8" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B8" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:42</t>
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B8" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:33</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -2803,14 +2819,14 @@
       <c r="AA8" s="15" t="n"/>
     </row>
     <row r="9" ht="34" customHeight="1" s="16">
-      <c r="A9" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B9" s="32" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:43</t>
+      <c r="A9" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B9" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:33</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
@@ -2868,14 +2884,14 @@
       <c r="AA9" s="15" t="n"/>
     </row>
     <row r="10" ht="34" customHeight="1" s="16">
-      <c r="A10" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B10" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:44</t>
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B10" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:34</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
@@ -2933,14 +2949,14 @@
       <c r="AA10" s="15" t="n"/>
     </row>
     <row r="11" ht="34" customHeight="1" s="16">
-      <c r="A11" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B11" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:44</t>
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B11" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:35</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
@@ -2998,14 +3014,14 @@
       <c r="AA11" s="15" t="n"/>
     </row>
     <row r="12" ht="34" customHeight="1" s="16">
-      <c r="A12" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B12" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:45</t>
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:36</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -3063,14 +3079,14 @@
       <c r="AA12" s="15" t="n"/>
     </row>
     <row r="13" ht="34" customHeight="1" s="16">
-      <c r="A13" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B13" s="32" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:46</t>
+      <c r="A13" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B13" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:36</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
@@ -3128,14 +3144,14 @@
       <c r="AA13" s="15" t="n"/>
     </row>
     <row r="14" ht="34" customHeight="1" s="16">
-      <c r="A14" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B14" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:47</t>
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B14" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:37</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -3193,14 +3209,14 @@
       <c r="AA14" s="15" t="n"/>
     </row>
     <row r="15" ht="34" customHeight="1" s="16">
-      <c r="A15" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B15" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:48</t>
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B15" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:38</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -3258,14 +3274,14 @@
       <c r="AA15" s="15" t="n"/>
     </row>
     <row r="16" ht="34" customHeight="1" s="16">
-      <c r="A16" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B16" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:49</t>
+      <c r="A16" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B16" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:39</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -3323,14 +3339,14 @@
       <c r="AA16" s="15" t="n"/>
     </row>
     <row r="17" ht="34" customHeight="1" s="16">
-      <c r="A17" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B17" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:50</t>
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B17" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:39</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
@@ -3388,14 +3404,14 @@
       <c r="AA17" s="15" t="n"/>
     </row>
     <row r="18" ht="34" customHeight="1" s="16">
-      <c r="A18" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B18" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:50</t>
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B18" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:40</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -3453,19 +3469,19 @@
       <c r="AA18" s="15" t="n"/>
     </row>
     <row r="19" ht="62" customHeight="1" s="16">
-      <c r="A19" s="61" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B19" s="62" t="inlineStr">
-        <is>
-          <t>2023/08/08 18:03:55</t>
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B19" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:22:24</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>r4,'02','JB002'</t>
+          <t>r4,'01','JB002'</t>
         </is>
       </c>
       <c r="D19" s="5" t="n"/>
@@ -3518,14 +3534,14 @@
       <c r="AA19" s="15" t="n"/>
     </row>
     <row r="20" ht="34" customHeight="1" s="16">
-      <c r="A20" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B20" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:52</t>
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B20" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:44</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -3583,14 +3599,14 @@
       <c r="AA20" s="15" t="n"/>
     </row>
     <row r="21" ht="34" customHeight="1" s="16">
-      <c r="A21" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B21" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:53</t>
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B21" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:45</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
@@ -3651,14 +3667,14 @@
       <c r="AA21" s="15" t="n"/>
     </row>
     <row r="22" ht="34" customHeight="1" s="16">
-      <c r="A22" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B22" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 15:36:54</t>
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B22" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:46</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -3719,14 +3735,14 @@
       <c r="AA22" s="15" t="n"/>
     </row>
     <row r="23" ht="34" customHeight="1" s="16">
-      <c r="A23" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B23" s="54" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:29</t>
+      <c r="A23" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B23" s="56" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:48</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
@@ -3784,17 +3800,17 @@
       <c r="AA23" s="15" t="n"/>
     </row>
     <row r="24" ht="34" customHeight="1" s="16">
-      <c r="A24" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B24" s="54" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:59:51</t>
-        </is>
-      </c>
-      <c r="C24" s="18" t="inlineStr">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B24" s="56" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:51</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E13.903'</t>
         </is>
@@ -3849,17 +3865,17 @@
       <c r="AA24" s="15" t="n"/>
     </row>
     <row r="25" ht="34" customHeight="1" s="16">
-      <c r="A25" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B25" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:59:53</t>
-        </is>
-      </c>
-      <c r="C25" s="18" t="inlineStr">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B25" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:54</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E28.201'</t>
         </is>
@@ -3914,26 +3930,19 @@
       <c r="AA25" s="15" t="n"/>
     </row>
     <row r="26" ht="34" customHeight="1" s="16">
-      <c r="A26" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="B26" s="57" t="inlineStr">
         <is>
-          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '110101196407281506'
-update T_ASSESS_PREVIOUS_HISTORY set MSG_CODE='JB001' , ASSOCIATION_TYPE='01' where IDCARD='110101196407281506'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/110101196407281506, 200
-select id from T_ASSESS_INFO where ID_CARD = '110101196407281506'
-delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1022 and RULE_CODE ='PG_JWS007'
-跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1022, 200
-select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1022 and RULE_CODE= 'PG_JWS007'
-</t>
+          <t>2023/08/09 11:06:57</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>r4,'01,'JB001'</t>
+          <t>r4,'01','JB001'</t>
         </is>
       </c>
       <c r="D26" s="5" t="n"/>
@@ -3986,19 +3995,19 @@
       <c r="AA26" s="15" t="n"/>
     </row>
     <row r="27" ht="34" customHeight="1" s="16">
-      <c r="A27" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B27" s="35" t="inlineStr">
-        <is>
-          <t>warning，不适用r1测试规则，未执行！</t>
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B27" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:06:59</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_FAMILY_HISTORY,DISEASE_NAME='糖尿病'</t>
+          <t>r6,'糖尿病'</t>
         </is>
       </c>
       <c r="D27" s="5" t="n"/>
@@ -4051,14 +4060,14 @@
       <c r="AA27" s="15" t="n"/>
     </row>
     <row r="28" ht="34" customHeight="1" s="16">
-      <c r="A28" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B28" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:18</t>
+      <c r="A28" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B28" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:00</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
@@ -4116,14 +4125,14 @@
       <c r="AA28" s="15" t="n"/>
     </row>
     <row r="29" ht="34" customHeight="1" s="16">
-      <c r="A29" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B29" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:19</t>
+      <c r="A29" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B29" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:01</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -4181,14 +4190,14 @@
       <c r="AA29" s="15" t="n"/>
     </row>
     <row r="30" ht="34" customHeight="1" s="16">
-      <c r="A30" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B30" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:19</t>
+      <c r="A30" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B30" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:02</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
@@ -4246,14 +4255,14 @@
       <c r="AA30" s="15" t="n"/>
     </row>
     <row r="31" ht="34" customHeight="1" s="16">
-      <c r="A31" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B31" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:20</t>
+      <c r="A31" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B31" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:02</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
@@ -4311,17 +4320,17 @@
       <c r="AA31" s="15" t="n"/>
     </row>
     <row r="32" ht="34" customHeight="1" s="16">
-      <c r="A32" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B32" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:59:57</t>
-        </is>
-      </c>
-      <c r="C32" s="18" t="inlineStr">
+      <c r="A32" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B32" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:22:26</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I48'</t>
         </is>
@@ -4377,19 +4386,19 @@
       <c r="AA32" s="15" t="n"/>
     </row>
     <row r="33" ht="34" customHeight="1" s="16">
-      <c r="A33" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B33" s="35" t="inlineStr">
-        <is>
-          <t>warning，不适用r1测试规则，未执行！</t>
+      <c r="A33" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B33" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:08</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_FAMILY_HISTORY,ASSESS_ID,DISEASE_NAME='脑卒中'</t>
+          <t>r6,'脑卒中'</t>
         </is>
       </c>
       <c r="D33" s="5" t="n"/>
@@ -4442,14 +4451,14 @@
       <c r="AA33" s="15" t="n"/>
     </row>
     <row r="34" ht="34" customHeight="1" s="16">
-      <c r="A34" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B34" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:24</t>
+      <c r="A34" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B34" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:09</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
@@ -4507,14 +4516,14 @@
       <c r="AA34" s="15" t="n"/>
     </row>
     <row r="35" ht="34" customHeight="1" s="16">
-      <c r="A35" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B35" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:25</t>
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B35" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:09</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
@@ -4572,14 +4581,14 @@
       <c r="AA35" s="15" t="n"/>
     </row>
     <row r="36" ht="34" customHeight="1" s="16">
-      <c r="A36" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B36" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:26</t>
+      <c r="A36" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B36" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:10</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
@@ -4637,17 +4646,17 @@
       <c r="AA36" s="15" t="n"/>
     </row>
     <row r="37" ht="34" customHeight="1" s="16">
-      <c r="A37" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B37" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:00</t>
-        </is>
-      </c>
-      <c r="C37" s="18" t="inlineStr">
+      <c r="A37" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B37" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:13</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I60'</t>
         </is>
@@ -4702,17 +4711,17 @@
       <c r="AA37" s="15" t="n"/>
     </row>
     <row r="38" ht="34" customHeight="1" s="16">
-      <c r="A38" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B38" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:03</t>
-        </is>
-      </c>
-      <c r="C38" s="18" t="inlineStr">
+      <c r="A38" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B38" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:15</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I61'</t>
         </is>
@@ -4767,17 +4776,17 @@
       <c r="AA38" s="15" t="n"/>
     </row>
     <row r="39" ht="34" customHeight="1" s="16">
-      <c r="A39" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B39" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:06</t>
-        </is>
-      </c>
-      <c r="C39" s="18" t="inlineStr">
+      <c r="A39" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B39" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:18</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I62'</t>
         </is>
@@ -4832,17 +4841,17 @@
       <c r="AA39" s="15" t="n"/>
     </row>
     <row r="40" ht="34" customHeight="1" s="16">
-      <c r="A40" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B40" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:09</t>
-        </is>
-      </c>
-      <c r="C40" s="18" t="inlineStr">
+      <c r="A40" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B40" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:21</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I63'</t>
         </is>
@@ -4897,17 +4906,17 @@
       <c r="AA40" s="15" t="n"/>
     </row>
     <row r="41" ht="34" customHeight="1" s="16">
-      <c r="A41" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B41" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:11</t>
-        </is>
-      </c>
-      <c r="C41" s="18" t="inlineStr">
+      <c r="A41" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B41" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:24</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I64'</t>
         </is>
@@ -4962,17 +4971,17 @@
       <c r="AA41" s="15" t="n"/>
     </row>
     <row r="42" ht="34" customHeight="1" s="16">
-      <c r="A42" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B42" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:14</t>
-        </is>
-      </c>
-      <c r="C42" s="18" t="inlineStr">
+      <c r="A42" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B42" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:26</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='G45.9'</t>
         </is>
@@ -5027,17 +5036,17 @@
       <c r="AA42" s="15" t="n"/>
     </row>
     <row r="43" ht="34" customHeight="1" s="16">
-      <c r="A43" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B43" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:17</t>
-        </is>
-      </c>
-      <c r="C43" s="18" t="inlineStr">
+      <c r="A43" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B43" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:29</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I67.202'</t>
         </is>
@@ -5092,14 +5101,14 @@
       <c r="AA43" s="15" t="n"/>
     </row>
     <row r="44" ht="34" customHeight="1" s="16">
-      <c r="A44" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B44" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:47</t>
+      <c r="A44" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B44" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:30</t>
         </is>
       </c>
       <c r="C44" s="5" t="inlineStr">
@@ -5157,17 +5166,17 @@
       <c r="AA44" s="15" t="n"/>
     </row>
     <row r="45" ht="34" customHeight="1" s="16">
-      <c r="A45" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B45" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:20</t>
-        </is>
-      </c>
-      <c r="C45" s="18" t="inlineStr">
+      <c r="A45" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B45" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:33</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E79.001'</t>
         </is>
@@ -5222,19 +5231,19 @@
       <c r="AA45" s="15" t="n"/>
     </row>
     <row r="46" ht="34" customHeight="1" s="16">
-      <c r="A46" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B46" s="35" t="inlineStr">
-        <is>
-          <t>warning，不适用r1测试规则，未执行！</t>
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B46" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:36</t>
         </is>
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_FAMILY_HISTORY,ASSESS_ID,DISEASE_NAME='肾'</t>
+          <t>r6,'肾'</t>
         </is>
       </c>
       <c r="D46" s="5" t="n"/>
@@ -5287,19 +5296,19 @@
       <c r="AA46" s="15" t="n"/>
     </row>
     <row r="47" ht="34" customHeight="1" s="16">
-      <c r="A47" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B47" s="35" t="inlineStr">
-        <is>
-          <t>warning，不适用r1测试规则，未执行！</t>
+      <c r="A47" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B47" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:39</t>
         </is>
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_FAMILY_HISTORY,ASSESS_ID,DISEASE_NAME='肾'</t>
+          <t>r6,'肾'</t>
         </is>
       </c>
       <c r="D47" s="5" t="n"/>
@@ -5352,14 +5361,14 @@
       <c r="AA47" s="15" t="n"/>
     </row>
     <row r="48" ht="34" customHeight="1" s="16">
-      <c r="A48" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B48" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:51</t>
+      <c r="A48" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B48" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:40</t>
         </is>
       </c>
       <c r="C48" s="5" t="inlineStr">
@@ -5417,14 +5426,14 @@
       <c r="AA48" s="15" t="n"/>
     </row>
     <row r="49" ht="34" customHeight="1" s="16">
-      <c r="A49" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B49" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:52</t>
+      <c r="A49" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B49" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:41</t>
         </is>
       </c>
       <c r="C49" s="5" t="inlineStr">
@@ -5482,14 +5491,14 @@
       <c r="AA49" s="15" t="n"/>
     </row>
     <row r="50" ht="34" customHeight="1" s="16">
-      <c r="A50" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B50" s="29" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:53</t>
+      <c r="A50" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B50" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:42</t>
         </is>
       </c>
       <c r="C50" s="5" t="inlineStr">
@@ -5548,14 +5557,14 @@
       <c r="AA50" s="15" t="n"/>
     </row>
     <row r="51" ht="34" customHeight="1" s="16">
-      <c r="A51" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B51" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:54</t>
+      <c r="A51" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:42</t>
         </is>
       </c>
       <c r="C51" s="5" t="inlineStr">
@@ -5613,14 +5622,14 @@
       <c r="AA51" s="15" t="n"/>
     </row>
     <row r="52" ht="34" customHeight="1" s="16">
-      <c r="A52" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B52" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:55</t>
+      <c r="A52" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B52" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:43</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -5678,17 +5687,17 @@
       <c r="AA52" s="15" t="n"/>
     </row>
     <row r="53" ht="34" customHeight="1" s="16">
-      <c r="A53" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B53" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:23</t>
-        </is>
-      </c>
-      <c r="C53" s="18" t="inlineStr">
+      <c r="A53" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B53" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:46</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='J45.9'</t>
         </is>
@@ -5743,19 +5752,19 @@
       <c r="AA53" s="15" t="n"/>
     </row>
     <row r="54" ht="34" customHeight="1" s="16">
-      <c r="A54" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
+      <c r="A54" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="B54" s="57" t="inlineStr">
         <is>
-          <t>warning，不适用r1测试规则，未执行！</t>
+          <t>2023/08/09 11:07:49</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_FAMILY_HISTORY,DISEASE_NAME='慢性阻塞性肺疾病'</t>
+          <t>r6,'慢性阻塞性肺疾病'</t>
         </is>
       </c>
       <c r="D54" s="5" t="n"/>
@@ -5808,14 +5817,14 @@
       <c r="AA54" s="15" t="n"/>
     </row>
     <row r="55" ht="34" customHeight="1" s="16">
-      <c r="A55" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B55" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:27:58</t>
+      <c r="A55" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B55" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:49</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
@@ -5873,17 +5882,17 @@
       <c r="AA55" s="15" t="n"/>
     </row>
     <row r="56" ht="34" customHeight="1" s="16">
-      <c r="A56" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B56" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:26</t>
-        </is>
-      </c>
-      <c r="C56" s="18" t="inlineStr">
+      <c r="A56" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B56" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:52</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='J30.4'</t>
         </is>
@@ -5938,17 +5947,17 @@
       <c r="AA56" s="15" t="n"/>
     </row>
     <row r="57" ht="34" customHeight="1" s="16">
-      <c r="A57" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B57" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:29</t>
-        </is>
-      </c>
-      <c r="C57" s="18" t="inlineStr">
+      <c r="A57" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B57" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:55</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='J42'</t>
         </is>
@@ -6003,17 +6012,17 @@
       <c r="AA57" s="15" t="n"/>
     </row>
     <row r="58" ht="34" customHeight="1" s="16">
-      <c r="A58" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B58" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:31</t>
-        </is>
-      </c>
-      <c r="C58" s="18" t="inlineStr">
+      <c r="A58" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B58" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:07:58</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='J43.9'</t>
         </is>
@@ -6068,17 +6077,17 @@
       <c r="AA58" s="15" t="n"/>
     </row>
     <row r="59" ht="34" customHeight="1" s="16">
-      <c r="A59" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B59" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:34</t>
-        </is>
-      </c>
-      <c r="C59" s="18" t="inlineStr">
+      <c r="A59" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B59" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:01</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E50'</t>
         </is>
@@ -6133,14 +6142,14 @@
       <c r="AA59" s="15" t="n"/>
     </row>
     <row r="60" ht="34" customHeight="1" s="16">
-      <c r="A60" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B60" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:28:11</t>
+      <c r="A60" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B60" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:01</t>
         </is>
       </c>
       <c r="C60" s="5" t="inlineStr">
@@ -6198,14 +6207,14 @@
       <c r="AA60" s="15" t="n"/>
     </row>
     <row r="61" ht="34" customHeight="1" s="16">
-      <c r="A61" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B61" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 16:28:12</t>
+      <c r="A61" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B61" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:02</t>
         </is>
       </c>
       <c r="C61" s="5" t="inlineStr">
@@ -6263,17 +6272,17 @@
       <c r="AA61" s="15" t="n"/>
     </row>
     <row r="62" ht="34" customHeight="1" s="16">
-      <c r="A62" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B62" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:00:37</t>
-        </is>
-      </c>
-      <c r="C62" s="18" t="inlineStr">
+      <c r="A62" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B62" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:05</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C'</t>
         </is>
@@ -6328,21 +6337,14 @@
       <c r="AA62" s="15" t="n"/>
     </row>
     <row r="63" ht="34" customHeight="1" s="16">
-      <c r="A63" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B63" s="35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '110101196407281506'
-update T_ASSESS_PREVIOUS_HISTORY set MSG_CODE='JB002' , ASSOCIATION_TYPE='01' where IDCARD='110101196407281506'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/110101196407281506, 200
-select id from T_ASSESS_INFO where ID_CARD = '110101196407281506'
-delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1023 and RULE_CODE ='PG_JWS017'
-跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1023, 200
-select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1023 and RULE_CODE= 'PG_JWS017'
-</t>
+      <c r="A63" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B63" s="36" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:14:56</t>
         </is>
       </c>
       <c r="C63" s="5" t="inlineStr">
@@ -6400,17 +6402,17 @@
       <c r="AA63" s="15" t="n"/>
     </row>
     <row r="64" ht="34" customHeight="1" s="16">
-      <c r="A64" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B64" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:35</t>
-        </is>
-      </c>
-      <c r="C64" s="18" t="inlineStr">
+      <c r="A64" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B64" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:10</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='J84.108'</t>
         </is>
@@ -6465,14 +6467,14 @@
       <c r="AA64" s="15" t="n"/>
     </row>
     <row r="65" ht="34" customHeight="1" s="16">
-      <c r="A65" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B65" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:36</t>
+      <c r="A65" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B65" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:11</t>
         </is>
       </c>
       <c r="C65" s="5" t="inlineStr">
@@ -6530,14 +6532,14 @@
       <c r="AA65" s="15" t="n"/>
     </row>
     <row r="66" ht="34" customHeight="1" s="16">
-      <c r="A66" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B66" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:37</t>
+      <c r="A66" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B66" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:12</t>
         </is>
       </c>
       <c r="C66" s="5" t="inlineStr">
@@ -6595,17 +6597,17 @@
       <c r="AA66" s="15" t="n"/>
     </row>
     <row r="67" ht="34" customHeight="1" s="16">
-      <c r="A67" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B67" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:39</t>
-        </is>
-      </c>
-      <c r="C67" s="18" t="inlineStr">
+      <c r="A67" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B67" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:15</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='K51'</t>
         </is>
@@ -6660,14 +6662,14 @@
       <c r="AA67" s="15" t="n"/>
     </row>
     <row r="68" ht="34" customHeight="1" s="16">
-      <c r="A68" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B68" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:40</t>
+      <c r="A68" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B68" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:15</t>
         </is>
       </c>
       <c r="C68" s="5" t="inlineStr">
@@ -6725,14 +6727,14 @@
       <c r="AA68" s="15" t="n"/>
     </row>
     <row r="69" ht="34" customHeight="1" s="16">
-      <c r="A69" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B69" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:41</t>
+      <c r="A69" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:16</t>
         </is>
       </c>
       <c r="C69" s="5" t="inlineStr">
@@ -6790,17 +6792,17 @@
       <c r="AA69" s="15" t="n"/>
     </row>
     <row r="70" ht="34" customHeight="1" s="16">
-      <c r="A70" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B70" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:44</t>
-        </is>
-      </c>
-      <c r="C70" s="18" t="inlineStr">
+      <c r="A70" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B70" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:19</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='B16'</t>
         </is>
@@ -6855,17 +6857,17 @@
       <c r="AA70" s="15" t="n"/>
     </row>
     <row r="71" ht="34" customHeight="1" s="16">
-      <c r="A71" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B71" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:46</t>
-        </is>
-      </c>
-      <c r="C71" s="18" t="inlineStr">
+      <c r="A71" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B71" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:22</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='B17.1'</t>
         </is>
@@ -6920,17 +6922,17 @@
       <c r="AA71" s="15" t="n"/>
     </row>
     <row r="72" ht="34" customHeight="1" s="16">
-      <c r="A72" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B72" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:49</t>
-        </is>
-      </c>
-      <c r="C72" s="18" t="inlineStr">
+      <c r="A72" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B72" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:25</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='K70.3'</t>
         </is>
@@ -6985,17 +6987,17 @@
       <c r="AA72" s="15" t="n"/>
     </row>
     <row r="73" ht="34" customHeight="1" s="16">
-      <c r="A73" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B73" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:52</t>
-        </is>
-      </c>
-      <c r="C73" s="18" t="inlineStr">
+      <c r="A73" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B73" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:27</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='K75.4'</t>
         </is>
@@ -7050,17 +7052,17 @@
       <c r="AA73" s="15" t="n"/>
     </row>
     <row r="74" ht="34" customHeight="1" s="16">
-      <c r="A74" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B74" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:55</t>
-        </is>
-      </c>
-      <c r="C74" s="18" t="inlineStr">
+      <c r="A74" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B74" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:30</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
         <is>
           <t>r3,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='K76.0'</t>
         </is>
@@ -7115,14 +7117,14 @@
       <c r="AA74" s="15" t="n"/>
     </row>
     <row r="75" ht="34" customHeight="1" s="16">
-      <c r="A75" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B75" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:56</t>
+      <c r="A75" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B75" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:31</t>
         </is>
       </c>
       <c r="C75" s="5" t="inlineStr">
@@ -7180,14 +7182,14 @@
       <c r="AA75" s="15" t="n"/>
     </row>
     <row r="76" ht="34" customHeight="1" s="16">
-      <c r="A76" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B76" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:02:59</t>
+      <c r="A76" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B76" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:34</t>
         </is>
       </c>
       <c r="C76" s="5" t="inlineStr">
@@ -7245,14 +7247,14 @@
       <c r="AA76" s="15" t="n"/>
     </row>
     <row r="77" ht="34" customHeight="1" s="16">
-      <c r="A77" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B77" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:01</t>
+      <c r="A77" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B77" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:36</t>
         </is>
       </c>
       <c r="C77" s="5" t="inlineStr">
@@ -7310,14 +7312,14 @@
       <c r="AA77" s="15" t="n"/>
     </row>
     <row r="78" ht="34" customHeight="1" s="16">
-      <c r="A78" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B78" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:04</t>
+      <c r="A78" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B78" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:39</t>
         </is>
       </c>
       <c r="C78" s="5" t="inlineStr">
@@ -7375,14 +7377,14 @@
       <c r="AA78" s="15" t="n"/>
     </row>
     <row r="79" ht="34" customHeight="1" s="16">
-      <c r="A79" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B79" s="29" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:05</t>
+      <c r="A79" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B79" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:40</t>
         </is>
       </c>
       <c r="C79" s="5" t="inlineStr">
@@ -7440,14 +7442,14 @@
       <c r="AA79" s="15" t="n"/>
     </row>
     <row r="80" ht="34" customHeight="1" s="16">
-      <c r="A80" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B80" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:08</t>
+      <c r="A80" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B80" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:43</t>
         </is>
       </c>
       <c r="C80" s="5" t="inlineStr">
@@ -7505,14 +7507,14 @@
       <c r="AA80" s="15" t="n"/>
     </row>
     <row r="81" ht="34" customHeight="1" s="16">
-      <c r="A81" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B81" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:11</t>
+      <c r="A81" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B81" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:46</t>
         </is>
       </c>
       <c r="C81" s="5" t="inlineStr">
@@ -7570,14 +7572,14 @@
       <c r="AA81" s="15" t="n"/>
     </row>
     <row r="82" ht="34" customHeight="1" s="16">
-      <c r="A82" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B82" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:13</t>
+      <c r="A82" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B82" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:48</t>
         </is>
       </c>
       <c r="C82" s="5" t="inlineStr">
@@ -7635,14 +7637,14 @@
       <c r="AA82" s="15" t="n"/>
     </row>
     <row r="83" ht="34" customHeight="1" s="16">
-      <c r="A83" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B83" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:16</t>
+      <c r="A83" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B83" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:51</t>
         </is>
       </c>
       <c r="C83" s="5" t="inlineStr">
@@ -7700,14 +7702,14 @@
       <c r="AA83" s="15" t="n"/>
     </row>
     <row r="84" ht="34" customHeight="1" s="16">
-      <c r="A84" s="29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B84" s="56" t="inlineStr">
-        <is>
-          <t>2023/08/08 17:03:19</t>
+      <c r="A84" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B84" s="57" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:08:54</t>
         </is>
       </c>
       <c r="C84" s="5" t="inlineStr">
@@ -7764,6 +7766,132 @@
       <c r="Z84" s="15" t="n"/>
       <c r="AA84" s="15" t="n"/>
     </row>
+    <row r="85">
+      <c r="C85" s="40" t="n"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="40" t="n"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="40" t="n"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="40" t="n"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="40" t="n"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="40" t="n"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="40" t="n"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="40" t="n"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="40" t="n"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="40" t="n"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="40" t="n"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="40" t="n"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="40" t="n"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="40" t="n"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="40" t="n"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="40" t="n"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="40" t="n"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="40" t="n"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="40" t="n"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="40" t="n"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="40" t="n"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="40" t="n"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="40" t="n"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="40" t="n"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="40" t="n"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="40" t="n"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="40" t="n"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="40" t="n"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="40" t="n"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="40" t="n"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="40" t="n"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="40" t="n"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="40" t="n"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="40" t="n"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="40" t="n"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="40" t="n"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="40" t="n"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="40" t="n"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="40" t="n"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="40" t="n"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="40" t="n"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="40" t="n"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K84"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7778,13 +7906,13 @@
   </sheetPr>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.06666666666667" defaultRowHeight="17.6" outlineLevelCol="0"/>
   <cols>
-    <col width="15.825" customWidth="1" style="16" min="2" max="2"/>
+    <col width="96.8" customWidth="1" style="16" min="2" max="2"/>
     <col width="42.075" customWidth="1" style="16" min="3" max="3"/>
     <col width="15.1416666666667" customWidth="1" style="16" min="7" max="7"/>
   </cols>
@@ -7852,14 +7980,14 @@
       </c>
     </row>
     <row r="2" ht="101" customHeight="1" s="16">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B2" s="58" t="inlineStr">
-        <is>
-          <t>2023/08/08 13:19:42</t>
+      <c r="A2" s="61" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B2" s="62" t="inlineStr">
+        <is>
+          <t>2023/08/09 11:36:14</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -7867,7 +7995,11 @@
           <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10'</t>
         </is>
       </c>
-      <c r="D2" s="6" t="n"/>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
           <t>GY_YH001001</t>
@@ -7899,23 +8031,36 @@
         </is>
       </c>
       <c r="K2" s="5" t="n"/>
-      <c r="L2" s="21" t="n"/>
+      <c r="L2" s="26" t="n"/>
     </row>
     <row r="3" ht="101" customHeight="1" s="16">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B3" s="58" t="n">
-        <v>45145.44637731482</v>
+      <c r="A3" s="63" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B3" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070002'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='E11' where IDCARD='310101202308070002'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070002, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070002'varID = 1148
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1148 and RULE_CODE ='GY_YH002001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1148, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1148 and RULE_CODE= 'GY_YH002001'0条
+</t>
+        </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='E11'</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E11'</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
           <t>GY_YH002001</t>
@@ -7943,23 +8088,36 @@
         </is>
       </c>
       <c r="K3" s="5" t="n"/>
-      <c r="L3" s="21" t="n"/>
+      <c r="L3" s="26" t="n"/>
     </row>
     <row r="4" ht="84" customHeight="1" s="16">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B4" s="58" t="n">
-        <v>45145.44640046296</v>
+      <c r="A4" s="63" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="B4" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I60' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'varID = 1149
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1149 and RULE_CODE ='GY_YH003001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1149, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1149 and RULE_CODE= 'GY_YH003001'0条
+</t>
+        </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I60'</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I60'</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
           <t>GY_YH003001</t>
@@ -7987,135 +8145,260 @@
         </is>
       </c>
       <c r="K4" s="5" t="n"/>
-      <c r="L4" s="21" t="n"/>
+      <c r="L4" s="26" t="n"/>
     </row>
     <row r="5" ht="84" customHeight="1" s="16">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B5" s="58" t="n">
-        <v>45145.44643518519</v>
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B5" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I61' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1126 and RULE_CODE ='GY_YH003001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1126, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1126 and RULE_CODE= 'GY_YH003001'
+</t>
+        </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I61'</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I61'</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
           <t>GY_YH003001</t>
         </is>
       </c>
       <c r="F5" s="10" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="5" t="n"/>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>脑卒中已患='是'</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'脑卒中'</t>
+        </is>
+      </c>
+      <c r="I5" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K5" s="5" t="n"/>
-      <c r="L5" s="21" t="n"/>
+      <c r="L5" s="26" t="n"/>
     </row>
     <row r="6" ht="84" customHeight="1" s="16">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B6" s="58" t="n">
-        <v>45145.44646990741</v>
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B6" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I62' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1127 and RULE_CODE ='GY_YH003001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1127, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1127 and RULE_CODE= 'GY_YH003001'
+</t>
+        </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I62'</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I62'</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
           <t>GY_YH003001</t>
         </is>
       </c>
       <c r="F6" s="10" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="5" t="n"/>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>脑卒中已患='是'</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'脑卒中'</t>
+        </is>
+      </c>
+      <c r="I6" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K6" s="5" t="n"/>
-      <c r="L6" s="21" t="n"/>
+      <c r="L6" s="26" t="n"/>
     </row>
     <row r="7" ht="84" customHeight="1" s="16">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B7" s="58" t="n">
-        <v>45145.44649305556</v>
+      <c r="A7" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B7" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I63' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1128 and RULE_CODE ='GY_YH003001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1128, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1128 and RULE_CODE= 'GY_YH003001'
+</t>
+        </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I63'</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I63'</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>GY_YH003001</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="5" t="n"/>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>脑卒中已患='是'</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'脑卒中'</t>
+        </is>
+      </c>
+      <c r="I7" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K7" s="5" t="n"/>
-      <c r="L7" s="21" t="n"/>
+      <c r="L7" s="26" t="n"/>
     </row>
     <row r="8" ht="84" customHeight="1" s="16">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B8" s="58" t="n">
-        <v>45145.44652777778</v>
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B8" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I64' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1129 and RULE_CODE ='GY_YH003001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1129, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1129 and RULE_CODE= 'GY_YH003001'
+</t>
+        </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I64'</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I64'</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
           <t>GY_YH003001</t>
         </is>
       </c>
       <c r="F8" s="10" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="5" t="n"/>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>脑卒中已患='是'</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'脑卒中'</t>
+        </is>
+      </c>
+      <c r="I8" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K8" s="5" t="n"/>
-      <c r="L8" s="21" t="n"/>
+      <c r="L8" s="26" t="n"/>
     </row>
     <row r="9" ht="84" customHeight="1" s="16">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B9" s="58" t="n">
-        <v>45145.4465625</v>
+      <c r="A9" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B9" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = 'None'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='N03' where IDCARD='None'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
+</t>
+        </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='N03'</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='N03'</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
           <t>GY_YH004001</t>
@@ -8143,23 +8426,36 @@
         </is>
       </c>
       <c r="K9" s="5" t="n"/>
-      <c r="L9" s="21" t="n"/>
+      <c r="L9" s="26" t="n"/>
     </row>
     <row r="10" ht="118" customHeight="1" s="16">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B10" s="58" t="n">
-        <v>45145.44658564815</v>
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B10" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070005'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='J44.9' where IDCARD='310101202308070005'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070005, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070005'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1130 and RULE_CODE ='GY_YH005001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1130, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1130 and RULE_CODE= 'GY_YH005001'
+</t>
+        </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='J44.9'</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='J44.9'</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
           <t>GY_YH005001</t>
@@ -8187,23 +8483,36 @@
         </is>
       </c>
       <c r="K10" s="5" t="n"/>
-      <c r="L10" s="21" t="n"/>
+      <c r="L10" s="26" t="n"/>
     </row>
     <row r="11" ht="84" customHeight="1" s="16">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B11" s="58" t="n">
-        <v>45145.44662037037</v>
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B11" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070006'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C34' where IDCARD='310101202308070006'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070006, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070006'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1131 and RULE_CODE ='GY_YH006001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1131, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1131 and RULE_CODE= 'GY_YH006001'
+</t>
+        </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C34'</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C34'</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
           <t>GY_YH006001</t>
@@ -8231,23 +8540,36 @@
         </is>
       </c>
       <c r="K11" s="5" t="n"/>
-      <c r="L11" s="21" t="n"/>
+      <c r="L11" s="26" t="n"/>
     </row>
     <row r="12" ht="84" customHeight="1" s="16">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B12" s="58" t="n">
-        <v>45145.44665509259</v>
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B12" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C18' where IDCARD='310101202308070007'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1132 and RULE_CODE ='GY_YH007001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1132, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1132 and RULE_CODE= 'GY_YH007001'
+</t>
+        </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C18'</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C18'</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
           <t>GY_YH007001</t>
@@ -8275,107 +8597,207 @@
         </is>
       </c>
       <c r="K12" s="5" t="n"/>
-      <c r="L12" s="21" t="n"/>
+      <c r="L12" s="26" t="n"/>
     </row>
     <row r="13" ht="84" customHeight="1" s="16">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B13" s="58" t="n">
-        <v>45145.44668981482</v>
+      <c r="A13" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B13" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C19' where IDCARD='310101202308070007'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1133 and RULE_CODE ='GY_YH007001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1133, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1133 and RULE_CODE= 'GY_YH007001'
+</t>
+        </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C19'</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C19'</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
           <t>GY_YH007001</t>
         </is>
       </c>
       <c r="F13" s="10" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="14" t="n"/>
-      <c r="J13" s="5" t="n"/>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>结直肠癌已患='是'</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'结直肠癌'</t>
+        </is>
+      </c>
+      <c r="I13" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K13" s="5" t="n"/>
-      <c r="L13" s="21" t="n"/>
+      <c r="L13" s="26" t="n"/>
     </row>
     <row r="14" ht="84" customHeight="1" s="16">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B14" s="58" t="n">
-        <v>45145.44671296296</v>
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B14" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C20' where IDCARD='310101202308070007'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1134 and RULE_CODE ='GY_YH007001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1134, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1134 and RULE_CODE= 'GY_YH007001'
+</t>
+        </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C20'</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C20'</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
           <t>GY_YH007001</t>
         </is>
       </c>
       <c r="F14" s="10" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="14" t="n"/>
-      <c r="J14" s="5" t="n"/>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>结直肠癌已患='是'</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'结直肠癌'</t>
+        </is>
+      </c>
+      <c r="I14" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K14" s="5" t="n"/>
-      <c r="L14" s="21" t="n"/>
+      <c r="L14" s="26" t="n"/>
     </row>
     <row r="15" ht="84" customHeight="1" s="16">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B15" s="58" t="n">
-        <v>45145.44674768519</v>
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B15" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C21' where IDCARD='310101202308070007'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1135 and RULE_CODE ='GY_YH007001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1135, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1135 and RULE_CODE= 'GY_YH007001'
+</t>
+        </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C21'</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C21'</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
           <t>GY_YH007001</t>
         </is>
       </c>
       <c r="F15" s="10" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="14" t="n"/>
-      <c r="J15" s="5" t="n"/>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>结直肠癌已患='是'</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病包含'结直肠癌'</t>
+        </is>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>遵医嘱服药，定期门诊随访</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>已患疾病干预</t>
+        </is>
+      </c>
       <c r="K15" s="5" t="n"/>
-      <c r="L15" s="21" t="n"/>
+      <c r="L15" s="26" t="n"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B16" s="58" t="n">
-        <v>45145.44678240741</v>
+      <c r="A16" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B16" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070008'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C50' where IDCARD='310101202308070008'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070008, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070008'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1136 and RULE_CODE ='GY_YH008001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1136, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1136 and RULE_CODE= 'GY_YH008001'
+</t>
+        </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C50'</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C50'</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
           <t>GY_YH008001</t>
@@ -8403,23 +8825,36 @@
         </is>
       </c>
       <c r="K16" s="5" t="n"/>
-      <c r="L16" s="21" t="n"/>
+      <c r="L16" s="26" t="n"/>
     </row>
     <row r="17" ht="84" customHeight="1" s="16">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B17" s="58" t="n">
-        <v>45145.44680555556</v>
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B17" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070009'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C22' where IDCARD='310101202308070009'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070009, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070009'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1137 and RULE_CODE ='GY_YH009001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1137, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1137 and RULE_CODE= 'GY_YH009001'
+</t>
+        </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C22'</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C22'</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
           <t>GY_YH009001</t>
@@ -8447,23 +8882,36 @@
         </is>
       </c>
       <c r="K17" s="5" t="n"/>
-      <c r="L17" s="21" t="n"/>
+      <c r="L17" s="26" t="n"/>
     </row>
     <row r="18" ht="84" customHeight="1" s="16">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B18" s="58" t="n">
-        <v>45145.44684027778</v>
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B18" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070010'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C16' where IDCARD='310101202308070010'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070010, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070010'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1138 and RULE_CODE ='GY_YH010001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1138, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1138 and RULE_CODE= 'GY_YH010001'
+</t>
+        </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C16'</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C16'</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
           <t>GY_YH010001</t>
@@ -8491,23 +8939,36 @@
         </is>
       </c>
       <c r="K18" s="5" t="n"/>
-      <c r="L18" s="21" t="n"/>
+      <c r="L18" s="26" t="n"/>
     </row>
     <row r="19" ht="84" customHeight="1" s="16">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="B19" s="58" t="n">
-        <v>45145.44686342592</v>
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B19" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070011'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C53' where IDCARD='310101202308070011'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070011, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070011'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1139 and RULE_CODE ='GY_YH011001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1139, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1139 and RULE_CODE= 'GY_YH011001'
+</t>
+        </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C53'</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="n"/>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C53'</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
           <t>GY_YH011001</t>
@@ -8535,13 +8996,21 @@
         </is>
       </c>
       <c r="K19" s="5" t="n"/>
-      <c r="L19" s="21" t="n"/>
+      <c r="L19" s="26" t="n"/>
     </row>
     <row r="20" ht="135" customHeight="1" s="16">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="58" t="n"/>
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B20" s="60" t="n"/>
       <c r="C20" s="5" t="n"/>
-      <c r="D20" s="6" t="n"/>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
           <t>GY_GW001001</t>
@@ -8572,17 +9041,25 @@
       <c r="L20" s="4" t="n"/>
     </row>
     <row r="21" ht="152" customHeight="1" s="16">
-      <c r="A21" s="4" t="n"/>
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B21" s="4" t="n"/>
-      <c r="C21" s="18" t="n"/>
-      <c r="D21" s="6" t="n"/>
+      <c r="C21" s="23" t="n"/>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
           <t>GY_GW001002</t>
         </is>
       </c>
       <c r="F21" s="10" t="n"/>
-      <c r="G21" s="18" t="inlineStr">
+      <c r="G21" s="23" t="inlineStr">
         <is>
           <t>高血压高危='是' and 慢病随访分类code不包含“21高血压易患”</t>
         </is>
@@ -8606,10 +9083,18 @@
       <c r="L21" s="4" t="n"/>
     </row>
     <row r="22" ht="68" customHeight="1" s="16">
-      <c r="A22" s="4" t="n"/>
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B22" s="4" t="n"/>
       <c r="C22" s="5" t="n"/>
-      <c r="D22" s="6" t="n"/>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
           <t>GY_GW002001</t>
@@ -8640,17 +9125,25 @@
       <c r="L22" s="4" t="n"/>
     </row>
     <row r="23" ht="152" customHeight="1" s="16">
-      <c r="A23" s="4" t="n"/>
+      <c r="A23" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="18" t="n"/>
-      <c r="D23" s="6" t="n"/>
+      <c r="C23" s="23" t="n"/>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
           <t>GY_GW002002</t>
         </is>
       </c>
       <c r="F23" s="10" t="n"/>
-      <c r="G23" s="18" t="inlineStr">
+      <c r="G23" s="23" t="inlineStr">
         <is>
           <t>糖尿病高危='是' and 慢病随访分类code不包含“32糖尿病前期”</t>
         </is>
@@ -8674,10 +9167,18 @@
       <c r="L23" s="4" t="n"/>
     </row>
     <row r="24" ht="202" customHeight="1" s="16">
-      <c r="A24" s="4" t="n"/>
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="5" t="n"/>
-      <c r="D24" s="6" t="n"/>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
           <t>GY_GW002003</t>
@@ -8712,10 +9213,18 @@
       <c r="L24" s="4" t="n"/>
     </row>
     <row r="25" ht="51" customHeight="1" s="16">
-      <c r="A25" s="4" t="n"/>
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="5" t="n"/>
-      <c r="D25" s="6" t="n"/>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
           <t>GY_GW003001</t>
@@ -8732,7 +9241,7 @@
           <t>高风险疾病评估包含'脑卒中'</t>
         </is>
       </c>
-      <c r="I25" s="22" t="inlineStr">
+      <c r="I25" s="27" t="inlineStr">
         <is>
           <t>建议每年进行一次脑卒中筛查</t>
         </is>
@@ -8746,17 +9255,25 @@
       <c r="L25" s="4" t="n"/>
     </row>
     <row r="26" ht="152" customHeight="1" s="16">
-      <c r="A26" s="4" t="n"/>
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B26" s="4" t="n"/>
-      <c r="C26" s="18" t="n"/>
-      <c r="D26" s="6" t="n"/>
+      <c r="C26" s="23" t="n"/>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
           <t>GY_GW003002</t>
         </is>
       </c>
       <c r="F26" s="10" t="n"/>
-      <c r="G26" s="18" t="inlineStr">
+      <c r="G26" s="23" t="inlineStr">
         <is>
           <t>脑卒中高危='是' and 慢病随访分类code不包含“24脑卒中高危”</t>
         </is>
@@ -8780,10 +9297,18 @@
       <c r="L26" s="4" t="n"/>
     </row>
     <row r="27" ht="68" customHeight="1" s="16">
-      <c r="A27" s="4" t="n"/>
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B27" s="4" t="n"/>
       <c r="C27" s="5" t="n"/>
-      <c r="D27" s="6" t="n"/>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
           <t>GY_GW004001</t>
@@ -8814,10 +9339,18 @@
       <c r="L27" s="4" t="n"/>
     </row>
     <row r="28" ht="303" customHeight="1" s="16">
-      <c r="A28" s="4" t="n"/>
+      <c r="A28" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="5" t="n"/>
-      <c r="D28" s="6" t="n"/>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
           <t>GY_GW004002</t>
@@ -8848,10 +9381,18 @@
       <c r="L28" s="4" t="n"/>
     </row>
     <row r="29" ht="84" customHeight="1" s="16">
-      <c r="A29" s="4" t="n"/>
+      <c r="A29" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="5" t="n"/>
-      <c r="D29" s="6" t="n"/>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
           <t>GY_GW005001</t>
@@ -8868,7 +9409,7 @@
           <t>高风险疾病评估包含'慢性阻塞性肺疾病'</t>
         </is>
       </c>
-      <c r="I29" s="22" t="inlineStr">
+      <c r="I29" s="27" t="inlineStr">
         <is>
           <t>建议每年进行一次慢性阻塞性肺疾病（COPD）筛查</t>
         </is>
@@ -8882,10 +9423,18 @@
       <c r="L29" s="4" t="n"/>
     </row>
     <row r="30" ht="84" customHeight="1" s="16">
-      <c r="A30" s="4" t="n"/>
+      <c r="A30" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B30" s="4" t="n"/>
       <c r="C30" s="5" t="n"/>
-      <c r="D30" s="6" t="n"/>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
           <t>GY_GW005002</t>
@@ -8916,10 +9465,18 @@
       <c r="L30" s="4" t="n"/>
     </row>
     <row r="31" ht="135" customHeight="1" s="16">
-      <c r="A31" s="4" t="n"/>
+      <c r="A31" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="n"/>
-      <c r="D31" s="6" t="n"/>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
           <t>GY_GW005003</t>
@@ -8950,10 +9507,18 @@
       <c r="L31" s="4" t="n"/>
     </row>
     <row r="32" ht="84" customHeight="1" s="16">
-      <c r="A32" s="4" t="n"/>
+      <c r="A32" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="n"/>
-      <c r="D32" s="6" t="n"/>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
           <t>GY_GW006001</t>
@@ -8984,10 +9549,18 @@
       <c r="L32" s="4" t="n"/>
     </row>
     <row r="33" ht="118" customHeight="1" s="16">
-      <c r="A33" s="4" t="n"/>
+      <c r="A33" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="5" t="n"/>
-      <c r="D33" s="6" t="n"/>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
           <t>GY_GW006002</t>
@@ -9018,10 +9591,18 @@
       <c r="L33" s="4" t="n"/>
     </row>
     <row r="34" ht="101" customHeight="1" s="16">
-      <c r="A34" s="4" t="n"/>
+      <c r="A34" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B34" s="4" t="n"/>
       <c r="C34" s="5" t="n"/>
-      <c r="D34" s="6" t="n"/>
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
           <t>GY_GW007001</t>
@@ -9052,10 +9633,18 @@
       <c r="L34" s="4" t="n"/>
     </row>
     <row r="35" ht="409.5" customHeight="1" s="16">
-      <c r="A35" s="4" t="n"/>
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B35" s="4" t="n"/>
       <c r="C35" s="5" t="n"/>
-      <c r="D35" s="6" t="n"/>
+      <c r="D35" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
           <t>GY_GW007002</t>
@@ -9089,10 +9678,18 @@
       <c r="L35" s="4" t="n"/>
     </row>
     <row r="36" ht="51" customHeight="1" s="16">
-      <c r="A36" s="4" t="n"/>
+      <c r="A36" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B36" s="4" t="n"/>
       <c r="C36" s="5" t="n"/>
-      <c r="D36" s="6" t="n"/>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
           <t>GY_GW008001</t>
@@ -9109,7 +9706,7 @@
           <t>高风险疾病评估包含'乳腺癌'</t>
         </is>
       </c>
-      <c r="I36" s="22" t="inlineStr">
+      <c r="I36" s="27" t="inlineStr">
         <is>
           <t>鼓励乳腺自查</t>
         </is>
@@ -9123,10 +9720,18 @@
       <c r="L36" s="4" t="n"/>
     </row>
     <row r="37" ht="353" customHeight="1" s="16">
-      <c r="A37" s="4" t="n"/>
+      <c r="A37" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="5" t="n"/>
-      <c r="D37" s="6" t="n"/>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
           <t>GY_GW008002</t>
@@ -9157,10 +9762,18 @@
       <c r="L37" s="4" t="n"/>
     </row>
     <row r="38" ht="51" customHeight="1" s="16">
-      <c r="A38" s="4" t="n"/>
+      <c r="A38" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B38" s="4" t="n"/>
       <c r="C38" s="5" t="n"/>
-      <c r="D38" s="6" t="n"/>
+      <c r="D38" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
           <t>GY_GW009001</t>
@@ -9177,7 +9790,7 @@
           <t>高风险疾病评估包含'肝癌'</t>
         </is>
       </c>
-      <c r="I38" s="22" t="inlineStr">
+      <c r="I38" s="27" t="inlineStr">
         <is>
           <t>每半年筛查一次血清甲胎蛋白（AFP）和肝脏B超</t>
         </is>
@@ -9191,10 +9804,18 @@
       <c r="L38" s="4" t="n"/>
     </row>
     <row r="39" ht="135" customHeight="1" s="16">
-      <c r="A39" s="4" t="n"/>
+      <c r="A39" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B39" s="4" t="n"/>
       <c r="C39" s="5" t="n"/>
-      <c r="D39" s="6" t="n"/>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
           <t>GY_GW009002</t>
@@ -9225,10 +9846,18 @@
       <c r="L39" s="4" t="n"/>
     </row>
     <row r="40" ht="118" customHeight="1" s="16">
-      <c r="A40" s="4" t="n"/>
+      <c r="A40" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B40" s="4" t="n"/>
       <c r="C40" s="5" t="n"/>
-      <c r="D40" s="6" t="n"/>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
           <t>GY_GW009003</t>
@@ -9259,10 +9888,18 @@
       <c r="L40" s="9" t="n"/>
     </row>
     <row r="41" ht="51" customHeight="1" s="16">
-      <c r="A41" s="4" t="n"/>
+      <c r="A41" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B41" s="4" t="n"/>
       <c r="C41" s="5" t="n"/>
-      <c r="D41" s="6" t="n"/>
+      <c r="D41" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
           <t>GY_GW010001</t>
@@ -9279,7 +9916,7 @@
           <t>高风险疾病评估包含'胃癌'</t>
         </is>
       </c>
-      <c r="I41" s="22" t="inlineStr">
+      <c r="I41" s="27" t="inlineStr">
         <is>
           <t>定期作胃镜检查</t>
         </is>
@@ -9293,10 +9930,18 @@
       <c r="L41" s="4" t="n"/>
     </row>
     <row r="42" ht="118" customHeight="1" s="16">
-      <c r="A42" s="4" t="n"/>
+      <c r="A42" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B42" s="4" t="n"/>
       <c r="C42" s="5" t="n"/>
-      <c r="D42" s="6" t="n"/>
+      <c r="D42" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
           <t>GY_GW010002</t>
@@ -9327,10 +9972,18 @@
       <c r="L42" s="4" t="n"/>
     </row>
     <row r="43" ht="51" customHeight="1" s="16">
-      <c r="A43" s="4" t="n"/>
+      <c r="A43" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B43" s="4" t="n"/>
       <c r="C43" s="5" t="n"/>
-      <c r="D43" s="6" t="n"/>
+      <c r="D43" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
           <t>GY_GW011001</t>
@@ -9347,7 +10000,7 @@
           <t>高风险疾病评估包含'宫颈癌'</t>
         </is>
       </c>
-      <c r="I43" s="22" t="inlineStr">
+      <c r="I43" s="27" t="inlineStr">
         <is>
           <t>定期进行宫颈细胞学检查</t>
         </is>
@@ -9361,10 +10014,18 @@
       <c r="L43" s="4" t="n"/>
     </row>
     <row r="44" ht="101" customHeight="1" s="16">
-      <c r="A44" s="4" t="n"/>
+      <c r="A44" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B44" s="4" t="n"/>
       <c r="C44" s="5" t="n"/>
-      <c r="D44" s="6" t="n"/>
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
           <t>GY_GW011002</t>
@@ -9381,7 +10042,7 @@
           <t>高风险疾病评估包含'宫颈癌' and HPV感染史 = '是'</t>
         </is>
       </c>
-      <c r="I44" s="22" t="inlineStr">
+      <c r="I44" s="27" t="inlineStr">
         <is>
           <t>及时治疗生殖道感染疾病，建议接种HPV疫苗</t>
         </is>
@@ -9395,10 +10056,18 @@
       <c r="L44" s="4" t="n"/>
     </row>
     <row r="45" ht="168" customHeight="1" s="16">
-      <c r="A45" s="4" t="n"/>
+      <c r="A45" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B45" s="4" t="n"/>
-      <c r="C45" s="18" t="n"/>
-      <c r="D45" s="6" t="n"/>
+      <c r="C45" s="23" t="n"/>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
           <t>GY_SH001</t>
@@ -9409,7 +10078,7 @@
           <t>饮酒</t>
         </is>
       </c>
-      <c r="G45" s="18" t="inlineStr">
+      <c r="G45" s="23" t="inlineStr">
         <is>
           <t>SHXG001='是' and 性别='男'</t>
         </is>
@@ -9433,17 +10102,25 @@
       <c r="L45" s="9" t="n"/>
     </row>
     <row r="46" ht="168" customHeight="1" s="16">
-      <c r="A46" s="4" t="n"/>
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B46" s="4" t="n"/>
-      <c r="C46" s="18" t="n"/>
-      <c r="D46" s="6" t="n"/>
+      <c r="C46" s="23" t="n"/>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
           <t>GY_SH002</t>
         </is>
       </c>
       <c r="F46" s="10" t="n"/>
-      <c r="G46" s="18" t="inlineStr">
+      <c r="G46" s="23" t="inlineStr">
         <is>
           <t>SHXG001='是' and 性别='女'</t>
         </is>
@@ -9467,17 +10144,25 @@
       <c r="L46" s="9" t="n"/>
     </row>
     <row r="47" ht="135" customHeight="1" s="16">
-      <c r="A47" s="4" t="n"/>
+      <c r="A47" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B47" s="4" t="n"/>
-      <c r="C47" s="18" t="n"/>
-      <c r="D47" s="6" t="n"/>
+      <c r="C47" s="23" t="n"/>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
           <t>GY_SH003</t>
         </is>
       </c>
       <c r="F47" s="10" t="n"/>
-      <c r="G47" s="18" t="inlineStr">
+      <c r="G47" s="23" t="inlineStr">
         <is>
           <t>SHXG001='否' and 性别='男'</t>
         </is>
@@ -9501,17 +10186,25 @@
       <c r="L47" s="9" t="n"/>
     </row>
     <row r="48" ht="135" customHeight="1" s="16">
-      <c r="A48" s="4" t="n"/>
+      <c r="A48" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B48" s="4" t="n"/>
-      <c r="C48" s="18" t="n"/>
-      <c r="D48" s="6" t="n"/>
+      <c r="C48" s="23" t="n"/>
+      <c r="D48" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
           <t>GY_SH004</t>
         </is>
       </c>
       <c r="F48" s="11" t="n"/>
-      <c r="G48" s="18" t="inlineStr">
+      <c r="G48" s="23" t="inlineStr">
         <is>
           <t>SHXG001='否' and 性别='女'</t>
         </is>
@@ -9535,10 +10228,18 @@
       <c r="L48" s="5" t="n"/>
     </row>
     <row r="49" ht="34" customHeight="1" s="16">
-      <c r="A49" s="4" t="n"/>
+      <c r="A49" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B49" s="4" t="n"/>
       <c r="C49" s="5" t="n"/>
-      <c r="D49" s="6" t="n"/>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
           <t>GY_SH005</t>
@@ -9573,10 +10274,18 @@
       <c r="L49" s="9" t="n"/>
     </row>
     <row r="50" ht="101" customHeight="1" s="16">
-      <c r="A50" s="4" t="n"/>
+      <c r="A50" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B50" s="4" t="n"/>
       <c r="C50" s="5" t="n"/>
-      <c r="D50" s="6" t="n"/>
+      <c r="D50" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
           <t>GY_SH006</t>
@@ -9607,10 +10316,18 @@
       <c r="L50" s="9" t="n"/>
     </row>
     <row r="51" ht="34" customHeight="1" s="16">
-      <c r="A51" s="4" t="n"/>
+      <c r="A51" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B51" s="4" t="n"/>
       <c r="C51" s="5" t="n"/>
-      <c r="D51" s="6" t="n"/>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
           <t>GY_SH007</t>
@@ -9645,10 +10362,18 @@
       <c r="L51" s="9" t="n"/>
     </row>
     <row r="52" ht="68" customHeight="1" s="16">
-      <c r="A52" s="4" t="n"/>
+      <c r="A52" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B52" s="4" t="n"/>
       <c r="C52" s="5" t="n"/>
-      <c r="D52" s="6" t="n"/>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
           <t>GY_SH008</t>
@@ -9679,10 +10404,18 @@
       <c r="L52" s="9" t="n"/>
     </row>
     <row r="53" ht="409.5" customHeight="1" s="16">
-      <c r="A53" s="4" t="n"/>
+      <c r="A53" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B53" s="4" t="n"/>
       <c r="C53" s="5" t="n"/>
-      <c r="D53" s="6" t="n"/>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
           <t>GY_SH009</t>
@@ -9736,10 +10469,18 @@
       <c r="L53" s="9" t="n"/>
     </row>
     <row r="54" ht="168" customHeight="1" s="16">
-      <c r="A54" s="4" t="n"/>
+      <c r="A54" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B54" s="4" t="n"/>
       <c r="C54" s="5" t="n"/>
-      <c r="D54" s="6" t="n"/>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
           <t>GY_SH010</t>
@@ -9774,10 +10515,18 @@
       <c r="L54" s="9" t="n"/>
     </row>
     <row r="55" ht="101" customHeight="1" s="16">
-      <c r="A55" s="4" t="n"/>
+      <c r="A55" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B55" s="4" t="n"/>
       <c r="C55" s="5" t="n"/>
-      <c r="D55" s="6" t="n"/>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
           <t>GY_SH011</t>
@@ -9808,10 +10557,18 @@
       <c r="L55" s="9" t="n"/>
     </row>
     <row r="56" ht="135" customHeight="1" s="16">
-      <c r="A56" s="4" t="n"/>
+      <c r="A56" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="B56" s="4" t="n"/>
       <c r="C56" s="5" t="n"/>
-      <c r="D56" s="6" t="n"/>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
           <t>GY_SH012</t>
@@ -9846,7 +10603,7 @@
       <c r="L56" s="9" t="n"/>
     </row>
     <row r="57" ht="135" customHeight="1" s="16">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -9861,18 +10618,22 @@
           <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10'</t>
         </is>
       </c>
-      <c r="D57" s="19" t="n"/>
-      <c r="E57" s="19" t="inlineStr">
+      <c r="D57" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E57" s="25" t="inlineStr">
         <is>
           <t>GY_YS001</t>
         </is>
       </c>
-      <c r="F57" s="19" t="inlineStr">
+      <c r="F57" s="25" t="inlineStr">
         <is>
           <t>饮食调养</t>
         </is>
       </c>
-      <c r="G57" s="19" t="inlineStr">
+      <c r="G57" s="25" t="inlineStr">
         <is>
           <t>高血压已患='是'
 or 高血压高危='是' 
@@ -9880,7 +10641,7 @@
 or 糖尿病高危='是'</t>
         </is>
       </c>
-      <c r="H57" s="19" t="inlineStr">
+      <c r="H57" s="25" t="inlineStr">
         <is>
           <t>高血压已患='是'</t>
         </is>
@@ -9890,7 +10651,7 @@
           <t>减少膳食脂肪</t>
         </is>
       </c>
-      <c r="J57" s="19" t="inlineStr">
+      <c r="J57" s="25" t="inlineStr">
         <is>
           <t>饮食调养</t>
         </is>
@@ -9899,7 +10660,7 @@
       <c r="L57" s="9" t="n"/>
     </row>
     <row r="58" ht="135" customHeight="1" s="16">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -9911,17 +10672,21 @@
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=55</t>
-        </is>
-      </c>
-      <c r="D58" s="19" t="n"/>
-      <c r="E58" s="19" t="inlineStr">
+          <t>r1,ID,AGE=55</t>
+        </is>
+      </c>
+      <c r="D58" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E58" s="25" t="inlineStr">
         <is>
           <t>GY_YS001</t>
         </is>
       </c>
       <c r="F58" s="10" t="n"/>
-      <c r="G58" s="19" t="inlineStr">
+      <c r="G58" s="25" t="inlineStr">
         <is>
           <t>高血压已患='是'
 or 高血压高危='是' 
@@ -9929,7 +10694,7 @@
 or 糖尿病高危='是'</t>
         </is>
       </c>
-      <c r="H58" s="19" t="inlineStr">
+      <c r="H58" s="25" t="inlineStr">
         <is>
           <t>高血压高危='是'</t>
         </is>
@@ -9939,7 +10704,7 @@
           <t>减少膳食脂肪</t>
         </is>
       </c>
-      <c r="J58" s="19" t="inlineStr">
+      <c r="J58" s="25" t="inlineStr">
         <is>
           <t>饮食调养</t>
         </is>
@@ -9948,7 +10713,7 @@
       <c r="L58" s="9" t="n"/>
     </row>
     <row r="59" ht="135" customHeight="1" s="16">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -9960,17 +10725,21 @@
       </c>
       <c r="C59" s="5" t="inlineStr">
         <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='E11'</t>
-        </is>
-      </c>
-      <c r="D59" s="19" t="n"/>
-      <c r="E59" s="19" t="inlineStr">
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E11'</t>
+        </is>
+      </c>
+      <c r="D59" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E59" s="25" t="inlineStr">
         <is>
           <t>GY_YS001</t>
         </is>
       </c>
       <c r="F59" s="10" t="n"/>
-      <c r="G59" s="19" t="inlineStr">
+      <c r="G59" s="25" t="inlineStr">
         <is>
           <t>高血压已患='是'
 or 高血压高危='是' 
@@ -9978,7 +10747,7 @@
 or 糖尿病高危='是'</t>
         </is>
       </c>
-      <c r="H59" s="19" t="inlineStr">
+      <c r="H59" s="25" t="inlineStr">
         <is>
           <t>糖尿病已患='是'</t>
         </is>
@@ -9988,7 +10757,7 @@
           <t>减少膳食脂肪</t>
         </is>
       </c>
-      <c r="J59" s="19" t="inlineStr">
+      <c r="J59" s="25" t="inlineStr">
         <is>
           <t>饮食调养</t>
         </is>
@@ -9997,7 +10766,7 @@
       <c r="L59" s="9" t="n"/>
     </row>
     <row r="60" ht="135" customHeight="1" s="16">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -10009,17 +10778,21 @@
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=40</t>
-        </is>
-      </c>
-      <c r="D60" s="19" t="n"/>
-      <c r="E60" s="19" t="inlineStr">
+          <t>r1,AGE=40</t>
+        </is>
+      </c>
+      <c r="D60" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E60" s="25" t="inlineStr">
         <is>
           <t>GY_YS001</t>
         </is>
       </c>
       <c r="F60" s="10" t="n"/>
-      <c r="G60" s="19" t="inlineStr">
+      <c r="G60" s="25" t="inlineStr">
         <is>
           <t>高血压已患='是'
 or 高血压高危='是' 
@@ -10027,7 +10800,7 @@
 or 糖尿病高危='是'</t>
         </is>
       </c>
-      <c r="H60" s="19" t="inlineStr">
+      <c r="H60" s="25" t="inlineStr">
         <is>
           <t>糖尿病高危='是'</t>
         </is>
@@ -10037,7 +10810,7 @@
           <t>减少膳食脂肪</t>
         </is>
       </c>
-      <c r="J60" s="19" t="inlineStr">
+      <c r="J60" s="25" t="inlineStr">
         <is>
           <t>饮食调养</t>
         </is>
@@ -10046,862 +10819,967 @@
       <c r="L60" s="9" t="n"/>
     </row>
     <row r="61" ht="185" customHeight="1" s="16">
-      <c r="A61" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B61" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='None'
+      <c r="A61" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B61" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070011'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C53' where IDCARD='310101202308070011'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070011, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070011'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1139 and RULE_CODE ='GY_YH011001'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1139, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1139 and RULE_CODE= 'GY_YH011001'
+</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>r5,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10',HALOPHILIA_CODE=2</t>
+        </is>
+      </c>
+      <c r="D61" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E61" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS002</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n"/>
+      <c r="G61" s="25" t="inlineStr">
+        <is>
+          <t>（高血压已患='是' or 高血压高危='是'） and PG_SHXG002='是'</t>
+        </is>
+      </c>
+      <c r="H61" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'高血压' 
+and 嗜盐='是'</t>
+        </is>
+      </c>
+      <c r="I61" s="14" t="inlineStr">
+        <is>
+          <t>限盐</t>
+        </is>
+      </c>
+      <c r="J61" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K61" s="5" t="n"/>
+      <c r="L61" s="9" t="n"/>
+    </row>
+    <row r="62" ht="118" customHeight="1" s="16">
+      <c r="A62" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B62" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 09:40:34</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">r1,AGE=55 .and. HALOPHILIA_CODE=2
+</t>
+        </is>
+      </c>
+      <c r="D62" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E62" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS002</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n"/>
+      <c r="G62" s="25" t="inlineStr">
+        <is>
+          <t>（高血压已患='是' or 高血压高危='是'） and PG_SHXG002='是'</t>
+        </is>
+      </c>
+      <c r="H62" s="25" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'高血压'
+and 嗜盐='是'</t>
+        </is>
+      </c>
+      <c r="I62" s="14" t="inlineStr">
+        <is>
+          <t>限盐</t>
+        </is>
+      </c>
+      <c r="J62" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K62" s="5" t="n"/>
+      <c r="L62" s="9" t="n"/>
+    </row>
+    <row r="63" ht="152" customHeight="1" s="16">
+      <c r="A63" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B63" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070010'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C16' where IDCARD='310101202308070010'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070010, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070010'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1140 and RULE_CODE ='GY_YS003'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1140, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1140 and RULE_CODE= 'GY_YS003'
+</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C16'</t>
+        </is>
+      </c>
+      <c r="D63" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E63" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS003</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n"/>
+      <c r="G63" s="25" t="inlineStr">
+        <is>
+          <t>胃癌已患='是' or 胃癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H63" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'胃癌'</t>
+        </is>
+      </c>
+      <c r="I63" s="14" t="inlineStr">
+        <is>
+          <t>不暴饮暴食，减少食用生冷、辛辣、过热、过硬的食物及熏制、腌制等高盐食物</t>
+        </is>
+      </c>
+      <c r="J63" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="n"/>
+      <c r="L63" s="9" t="n"/>
+    </row>
+    <row r="64" ht="152" customHeight="1" s="16">
+      <c r="A64" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B64" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 09:40:37</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>r1,ID,AGE=60</t>
+        </is>
+      </c>
+      <c r="D64" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E64" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS003</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n"/>
+      <c r="G64" s="25" t="inlineStr">
+        <is>
+          <t>胃癌已患='是' or 胃癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H64" s="25" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'胃癌'</t>
+        </is>
+      </c>
+      <c r="I64" s="14" t="inlineStr">
+        <is>
+          <t>不暴饮暴食，减少食用生冷、辛辣、过热、过硬的食物及熏制、腌制等高盐食物</t>
+        </is>
+      </c>
+      <c r="J64" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K64" s="5" t="n"/>
+      <c r="L64" s="9" t="n"/>
+    </row>
+    <row r="65" ht="101" customHeight="1" s="16">
+      <c r="A65" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B65" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070009'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C22' where IDCARD='310101202308070009'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070009, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070009'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1141 and RULE_CODE ='GY_YS004'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1141, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1141 and RULE_CODE= 'GY_YS004'
+</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C22'</t>
+        </is>
+      </c>
+      <c r="D65" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E65" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS004</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n"/>
+      <c r="G65" s="25" t="inlineStr">
+        <is>
+          <t>肝癌已患='是' or 肝癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H65" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'肝癌'</t>
+        </is>
+      </c>
+      <c r="I65" s="14" t="inlineStr">
+        <is>
+          <t>清淡饮食，减少油腻食物摄入，避免发霉食物的摄入</t>
+        </is>
+      </c>
+      <c r="J65" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K65" s="5" t="n"/>
+      <c r="L65" s="9" t="n"/>
+    </row>
+    <row r="66" ht="168" customHeight="1" s="16">
+      <c r="A66" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B66" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select top(1) ID,ID_CARD from T_ASSESS_INFO
+update T_ASSESS_INFO set T_ASSESS_INFO where ID_CARD = '310109195411072438'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1 and RULE_CODE ='GY_YS004'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1 and RULE_CODE= 'GY_YS004'
+</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>r1,T_ASSESS_INFO,ID,SEX_CODE=1.and.AGE=35
+r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='B16'</t>
+        </is>
+      </c>
+      <c r="D66" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E66" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS004</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n"/>
+      <c r="G66" s="25" t="inlineStr">
+        <is>
+          <t>肝癌已患='是' or 肝癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H66" s="25" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'肝癌'</t>
+        </is>
+      </c>
+      <c r="I66" s="14" t="inlineStr">
+        <is>
+          <t>清淡饮食，减少油腻食物摄入，避免发霉食物的摄入</t>
+        </is>
+      </c>
+      <c r="J66" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K66" s="5" t="n"/>
+      <c r="L66" s="9" t="n"/>
+    </row>
+    <row r="67" ht="101" customHeight="1" s="16">
+      <c r="A67" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B67" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C18' where IDCARD='310101202308070007'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070007'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1142 and RULE_CODE ='GY_YS005'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1142, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1142 and RULE_CODE= 'GY_YS005'
+</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C18'</t>
+        </is>
+      </c>
+      <c r="D67" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E67" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS005</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n"/>
+      <c r="G67" s="25" t="inlineStr">
+        <is>
+          <t>结直肠癌已患='是' or 结直肠癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H67" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'结直肠癌'</t>
+        </is>
+      </c>
+      <c r="I67" s="14" t="inlineStr">
+        <is>
+          <t>增加粗纤维、新鲜水果摄入，避免高脂高蛋白饮食</t>
+        </is>
+      </c>
+      <c r="J67" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="n"/>
+      <c r="L67" s="9" t="n"/>
+    </row>
+    <row r="68" ht="101" customHeight="1" s="16">
+      <c r="A68" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B68" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 09:40:44</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>r1,AGE=45</t>
+        </is>
+      </c>
+      <c r="D68" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E68" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS005</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n"/>
+      <c r="G68" s="25" t="inlineStr">
+        <is>
+          <t>结直肠癌已患='是' or 结直肠癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H68" s="25" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'结直肠癌'</t>
+        </is>
+      </c>
+      <c r="I68" s="14" t="inlineStr">
+        <is>
+          <t>增加粗纤维、新鲜水果摄入，避免高脂高蛋白饮食</t>
+        </is>
+      </c>
+      <c r="J68" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K68" s="5" t="n"/>
+      <c r="L68" s="9" t="n"/>
+    </row>
+    <row r="69" ht="84" customHeight="1" s="16">
+      <c r="A69" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B69" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070008'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='C50' where IDCARD='310101202308070008'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070008, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070008'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1143 and RULE_CODE ='GY_YS006'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1143, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1143 and RULE_CODE= 'GY_YS006'
+</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='C50'</t>
+        </is>
+      </c>
+      <c r="D69" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E69" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS006</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n"/>
+      <c r="G69" s="25" t="inlineStr">
+        <is>
+          <t>乳腺癌已患='是' or 乳腺癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H69" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'乳腺癌'</t>
+        </is>
+      </c>
+      <c r="I69" s="14" t="inlineStr">
+        <is>
+          <t>合理营养</t>
+        </is>
+      </c>
+      <c r="J69" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K69" s="5" t="n"/>
+      <c r="L69" s="9" t="n"/>
+    </row>
+    <row r="70" ht="68" customHeight="1" s="16">
+      <c r="A70" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B70" s="28" t="n"/>
+      <c r="C70" s="29" t="n"/>
+      <c r="D70" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E70" s="30" t="inlineStr">
+        <is>
+          <t>GY_YS006</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n"/>
+      <c r="G70" s="30" t="inlineStr">
+        <is>
+          <t>乳腺癌已患='是' or 乳腺癌高危='是'</t>
+        </is>
+      </c>
+      <c r="H70" s="30" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'乳腺癌'</t>
+        </is>
+      </c>
+      <c r="I70" s="29" t="inlineStr">
+        <is>
+          <t>合理营养</t>
+        </is>
+      </c>
+      <c r="J70" s="30" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K70" s="29" t="n"/>
+      <c r="L70" s="31" t="n"/>
+    </row>
+    <row r="71" ht="84" customHeight="1" s="16">
+      <c r="A71" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B71" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = 'None'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='N03' where IDCARD='None'
 新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
 </t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I10' and r1,T_ASSESS_INFO,ID,HALOPHILIA_CODE=2</t>
-        </is>
-      </c>
-      <c r="D61" s="19" t="n"/>
-      <c r="E61" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS002</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n"/>
-      <c r="G61" s="19" t="inlineStr">
-        <is>
-          <t>（高血压已患='是' or 高血压高危='是'） and PG_SHXG002='是'</t>
-        </is>
-      </c>
-      <c r="H61" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'高血压' 
-and 嗜盐='是'</t>
-        </is>
-      </c>
-      <c r="I61" s="14" t="inlineStr">
-        <is>
-          <t>限盐</t>
-        </is>
-      </c>
-      <c r="J61" s="19" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='N03'</t>
+        </is>
+      </c>
+      <c r="D71" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E71" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS007</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n"/>
+      <c r="G71" s="25" t="inlineStr">
+        <is>
+          <t>慢性肾脏病已患='是' or 慢性肾脏病高危='是'</t>
+        </is>
+      </c>
+      <c r="H71" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'慢性肾脏病'</t>
+        </is>
+      </c>
+      <c r="I71" s="14" t="inlineStr">
+        <is>
+          <t>低蛋白饮食</t>
+        </is>
+      </c>
+      <c r="J71" s="25" t="inlineStr">
         <is>
           <t>饮食调养</t>
         </is>
       </c>
-      <c r="K61" s="5" t="n"/>
-      <c r="L61" s="9" t="n"/>
-    </row>
-    <row r="62" ht="118" customHeight="1" s="16">
-      <c r="A62" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B62" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='None'
+      <c r="K71" s="5" t="n"/>
+      <c r="L71" s="9" t="n"/>
+    </row>
+    <row r="72" ht="84" customHeight="1" s="16">
+      <c r="A72" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B72" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 09:40:50</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>r1,AGE=66</t>
+        </is>
+      </c>
+      <c r="D72" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E72" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS007</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n"/>
+      <c r="G72" s="25" t="inlineStr">
+        <is>
+          <t>慢性肾脏病已患='是' or 慢性肾脏病高危='是'</t>
+        </is>
+      </c>
+      <c r="H72" s="25" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'慢性肾脏病'</t>
+        </is>
+      </c>
+      <c r="I72" s="14" t="inlineStr">
+        <is>
+          <t>低蛋白饮食</t>
+        </is>
+      </c>
+      <c r="J72" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K72" s="5" t="n"/>
+      <c r="L72" s="9" t="n"/>
+    </row>
+    <row r="73" ht="84" customHeight="1" s="16">
+      <c r="A73" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B73" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I60' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1144 and RULE_CODE ='GY_YS008'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1144, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1144 and RULE_CODE= 'GY_YS008'
+</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I60'</t>
+        </is>
+      </c>
+      <c r="D73" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E73" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS008</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n"/>
+      <c r="G73" s="25" t="inlineStr">
+        <is>
+          <t>脑卒中已患='是' or 脑卒中高危='是'</t>
+        </is>
+      </c>
+      <c r="H73" s="25" t="inlineStr">
+        <is>
+          <t>已患疾病包含'脑卒中'</t>
+        </is>
+      </c>
+      <c r="I73" s="14" t="inlineStr">
+        <is>
+          <t>减少膳食盐、油、糖、脂肪摄入</t>
+        </is>
+      </c>
+      <c r="J73" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K73" s="5" t="n"/>
+      <c r="L73" s="9" t="n"/>
+    </row>
+    <row r="74" ht="409.5" customHeight="1" s="16">
+      <c r="A74" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B74" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 09:40:53</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>r1,T_ASSESS_PREVIOUS_HISTORY,ASSESS_ID,MSG_CODE='JB002'.and. ASSOCIATION_TYPE='01'
+r1,T_ASSESS_PREVIOUS_HISTORY,ASSESS_ID,MSG_CODE='JB001'.and. ASSOCIATION_TYPE='01'
+r1,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I48'</t>
+        </is>
+      </c>
+      <c r="D74" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E74" s="25" t="inlineStr">
+        <is>
+          <t>GY_YS008</t>
+        </is>
+      </c>
+      <c r="F74" s="11" t="n"/>
+      <c r="G74" s="25" t="inlineStr">
+        <is>
+          <t>脑卒中已患='是' or 脑卒中高危='是'</t>
+        </is>
+      </c>
+      <c r="H74" s="25" t="inlineStr">
+        <is>
+          <t>高风险疾病评估包含'脑卒中'</t>
+        </is>
+      </c>
+      <c r="I74" s="14" t="inlineStr">
+        <is>
+          <t>减少膳食盐、油、糖、脂肪摄入</t>
+        </is>
+      </c>
+      <c r="J74" s="25" t="inlineStr">
+        <is>
+          <t>饮食调养</t>
+        </is>
+      </c>
+      <c r="K74" s="5" t="n"/>
+      <c r="L74" s="9" t="n"/>
+    </row>
+    <row r="75" ht="135" customHeight="1" s="16">
+      <c r="A75" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B75" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='I60' where IDCARD='310101202308070003'
+新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, 200
+select id from T_ASSESS_INFO where ID_CARD = '310101202308070003'
+delete from T_ASSESS_RULE_RECORD where ASSESS_ID = 1144 and RULE_CODE ='GY_YS008'
+跑规则, http://192.168.0.243:8011/rules/tAssessRuleRecord/testExecuteRule/1144, 200
+select count(*) NO from T_ASSESS_RULE_RECORD where ASSESS_ID =1144 and RULE_CODE= 'GY_YS008'
+</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">r5,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='I10'
+,AGE=66
+</t>
+        </is>
+      </c>
+      <c r="D75" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E75" s="25" t="inlineStr">
+        <is>
+          <t>GY_ZW001</t>
+        </is>
+      </c>
+      <c r="F75" s="25" t="inlineStr">
+        <is>
+          <t>自我管理</t>
+        </is>
+      </c>
+      <c r="G75" s="25" t="inlineStr">
+        <is>
+          <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'）and 高血压已患='是'</t>
+        </is>
+      </c>
+      <c r="H75" s="25" t="inlineStr">
+        <is>
+          <t>（高风险疾病评估包含'慢性肾病' ）and 已患疾病包含'高血压'</t>
+        </is>
+      </c>
+      <c r="I75" s="14" t="inlineStr">
+        <is>
+          <t>控制血压</t>
+        </is>
+      </c>
+      <c r="J75" s="25" t="inlineStr">
+        <is>
+          <t>自我管理</t>
+        </is>
+      </c>
+      <c r="K75" s="5" t="n"/>
+      <c r="L75" s="9" t="n"/>
+    </row>
+    <row r="76" ht="168" customHeight="1" s="16">
+      <c r="A76" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B76" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = 'None'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='N03' ,DIAGNOSIS_CODE='I10' where IDCARD='None'
 新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
 </t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">r1,T_ASSESS_INFO,ID,AGE=55 .and. HALOPHILIA_CODE=2
-</t>
-        </is>
-      </c>
-      <c r="D62" s="19" t="n"/>
-      <c r="E62" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS002</t>
-        </is>
-      </c>
-      <c r="F62" s="10" t="n"/>
-      <c r="G62" s="19" t="inlineStr">
-        <is>
-          <t>（高血压已患='是' or 高血压高危='是'） and PG_SHXG002='是'</t>
-        </is>
-      </c>
-      <c r="H62" s="19" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'高血压'
-and 嗜盐='是'</t>
-        </is>
-      </c>
-      <c r="I62" s="14" t="inlineStr">
-        <is>
-          <t>限盐</t>
-        </is>
-      </c>
-      <c r="J62" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K62" s="5" t="n"/>
-      <c r="L62" s="9" t="n"/>
-    </row>
-    <row r="63" ht="152" customHeight="1" s="16">
-      <c r="A63" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B63" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='310101202308070010'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070010, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C63" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C16'</t>
-        </is>
-      </c>
-      <c r="D63" s="19" t="n"/>
-      <c r="E63" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS003</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n"/>
-      <c r="G63" s="19" t="inlineStr">
-        <is>
-          <t>胃癌已患='是' or 胃癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H63" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'胃癌'</t>
-        </is>
-      </c>
-      <c r="I63" s="14" t="inlineStr">
-        <is>
-          <t>不暴饮暴食，减少食用生冷、辛辣、过热、过硬的食物及熏制、腌制等高盐食物</t>
-        </is>
-      </c>
-      <c r="J63" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K63" s="5" t="n"/>
-      <c r="L63" s="9" t="n"/>
-    </row>
-    <row r="64" ht="152" customHeight="1" s="16">
-      <c r="A64" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B64" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='310101202308070010'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070010, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C64" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=60</t>
-        </is>
-      </c>
-      <c r="D64" s="19" t="n"/>
-      <c r="E64" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS003</t>
-        </is>
-      </c>
-      <c r="F64" s="10" t="n"/>
-      <c r="G64" s="19" t="inlineStr">
-        <is>
-          <t>胃癌已患='是' or 胃癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H64" s="19" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'胃癌'</t>
-        </is>
-      </c>
-      <c r="I64" s="14" t="inlineStr">
-        <is>
-          <t>不暴饮暴食，减少食用生冷、辛辣、过热、过硬的食物及熏制、腌制等高盐食物</t>
-        </is>
-      </c>
-      <c r="J64" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K64" s="5" t="n"/>
-      <c r="L64" s="9" t="n"/>
-    </row>
-    <row r="65" ht="101" customHeight="1" s="16">
-      <c r="A65" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B65" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='310101202308070009'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070009, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C65" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C22'</t>
-        </is>
-      </c>
-      <c r="D65" s="19" t="n"/>
-      <c r="E65" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS004</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n"/>
-      <c r="G65" s="19" t="inlineStr">
-        <is>
-          <t>肝癌已患='是' or 肝癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H65" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'肝癌'</t>
-        </is>
-      </c>
-      <c r="I65" s="14" t="inlineStr">
-        <is>
-          <t>清淡饮食，减少油腻食物摄入，避免发霉食物的摄入</t>
-        </is>
-      </c>
-      <c r="J65" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K65" s="5" t="n"/>
-      <c r="L65" s="9" t="n"/>
-    </row>
-    <row r="66" ht="168" customHeight="1" s="16">
-      <c r="A66" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B66" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='310101202308070009'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070009, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C66" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_INFO,ID,SEX_CODE=1.and.AGE=35
-r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='B16'</t>
-        </is>
-      </c>
-      <c r="D66" s="19" t="n"/>
-      <c r="E66" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS004</t>
-        </is>
-      </c>
-      <c r="F66" s="10" t="n"/>
-      <c r="G66" s="19" t="inlineStr">
-        <is>
-          <t>肝癌已患='是' or 肝癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H66" s="19" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'肝癌'</t>
-        </is>
-      </c>
-      <c r="I66" s="14" t="inlineStr">
-        <is>
-          <t>清淡饮食，减少油腻食物摄入，避免发霉食物的摄入</t>
-        </is>
-      </c>
-      <c r="J66" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K66" s="5" t="n"/>
-      <c r="L66" s="9" t="n"/>
-    </row>
-    <row r="67" ht="101" customHeight="1" s="16">
-      <c r="A67" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B67" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='310101202308070007'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C18'</t>
-        </is>
-      </c>
-      <c r="D67" s="19" t="n"/>
-      <c r="E67" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS005</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n"/>
-      <c r="G67" s="19" t="inlineStr">
-        <is>
-          <t>结直肠癌已患='是' or 结直肠癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H67" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'结直肠癌'</t>
-        </is>
-      </c>
-      <c r="I67" s="14" t="inlineStr">
-        <is>
-          <t>增加粗纤维、新鲜水果摄入，避免高脂高蛋白饮食</t>
-        </is>
-      </c>
-      <c r="J67" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="n"/>
-      <c r="L67" s="9" t="n"/>
-    </row>
-    <row r="68" ht="101" customHeight="1" s="16">
-      <c r="A68" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B68" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='310101202308070007'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070007, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=45</t>
-        </is>
-      </c>
-      <c r="D68" s="19" t="n"/>
-      <c r="E68" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS005</t>
-        </is>
-      </c>
-      <c r="F68" s="10" t="n"/>
-      <c r="G68" s="19" t="inlineStr">
-        <is>
-          <t>结直肠癌已患='是' or 结直肠癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H68" s="19" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'结直肠癌'</t>
-        </is>
-      </c>
-      <c r="I68" s="14" t="inlineStr">
-        <is>
-          <t>增加粗纤维、新鲜水果摄入，避免高脂高蛋白饮食</t>
-        </is>
-      </c>
-      <c r="J68" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K68" s="5" t="n"/>
-      <c r="L68" s="9" t="n"/>
-    </row>
-    <row r="69" ht="84" customHeight="1" s="16">
-      <c r="A69" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B69" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='310101202308070008'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070008, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='C50'</t>
-        </is>
-      </c>
-      <c r="D69" s="19" t="n"/>
-      <c r="E69" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS006</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n"/>
-      <c r="G69" s="19" t="inlineStr">
-        <is>
-          <t>乳腺癌已患='是' or 乳腺癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H69" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'乳腺癌'</t>
-        </is>
-      </c>
-      <c r="I69" s="14" t="inlineStr">
-        <is>
-          <t>合理营养</t>
-        </is>
-      </c>
-      <c r="J69" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K69" s="5" t="n"/>
-      <c r="L69" s="9" t="n"/>
-    </row>
-    <row r="70" ht="68" customHeight="1" s="16">
-      <c r="A70" s="23" t="n"/>
-      <c r="B70" s="23" t="n"/>
-      <c r="C70" s="24" t="n"/>
-      <c r="D70" s="25" t="n"/>
-      <c r="E70" s="25" t="inlineStr">
-        <is>
-          <t>GY_YS006</t>
-        </is>
-      </c>
-      <c r="F70" s="10" t="n"/>
-      <c r="G70" s="25" t="inlineStr">
-        <is>
-          <t>乳腺癌已患='是' or 乳腺癌高危='是'</t>
-        </is>
-      </c>
-      <c r="H70" s="25" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'乳腺癌'</t>
-        </is>
-      </c>
-      <c r="I70" s="24" t="inlineStr">
-        <is>
-          <t>合理营养</t>
-        </is>
-      </c>
-      <c r="J70" s="25" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K70" s="24" t="n"/>
-      <c r="L70" s="26" t="n"/>
-    </row>
-    <row r="71" ht="84" customHeight="1" s="16">
-      <c r="A71" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B71" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='None'
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='N03' .and.DIAGNOSIS_CODE='I10'</t>
+        </is>
+      </c>
+      <c r="D76" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E76" s="25" t="inlineStr">
+        <is>
+          <t>GY_ZW001</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n"/>
+      <c r="G76" s="25" t="inlineStr">
+        <is>
+          <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'）and 高血压已患='是'</t>
+        </is>
+      </c>
+      <c r="H76" s="25" t="inlineStr">
+        <is>
+          <t>（已患疾病包含'慢性肾病'）
+and 已患疾病包含'高血压'</t>
+        </is>
+      </c>
+      <c r="I76" s="14" t="inlineStr">
+        <is>
+          <t>控制血压</t>
+        </is>
+      </c>
+      <c r="J76" s="25" t="inlineStr">
+        <is>
+          <t>自我管理</t>
+        </is>
+      </c>
+      <c r="K76" s="5" t="n"/>
+      <c r="L76" s="9" t="n"/>
+    </row>
+    <row r="77" ht="135" customHeight="1" s="16">
+      <c r="A77" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B77" s="17" t="inlineStr">
+        <is>
+          <t>2023/08/09 09:40:57</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>r1,T_ASSESS_INFO,ID,AGE=66
+r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='E11'</t>
+        </is>
+      </c>
+      <c r="D77" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E77" s="25" t="inlineStr">
+        <is>
+          <t>GY_ZW002</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n"/>
+      <c r="G77" s="25" t="inlineStr">
+        <is>
+          <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'） and 糖尿病已患='是'</t>
+        </is>
+      </c>
+      <c r="H77" s="25" t="inlineStr">
+        <is>
+          <t>（高风险疾病评估包含'慢性肾病' ） and 已患疾病包含'糖尿病'</t>
+        </is>
+      </c>
+      <c r="I77" s="14" t="inlineStr">
+        <is>
+          <t>控制血糖</t>
+        </is>
+      </c>
+      <c r="J77" s="25" t="inlineStr">
+        <is>
+          <t>自我管理</t>
+        </is>
+      </c>
+      <c r="K77" s="5" t="n"/>
+      <c r="L77" s="9" t="n"/>
+    </row>
+    <row r="78" ht="185" customHeight="1" s="16">
+      <c r="A78" s="17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="B78" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">delete from T_ASSESS_INFO where ID_CARD = 'None'
+update T_HIS_DIAGNOSIS set DIAGNOSIS_CODE='N03',DIAGNOSIS_CODE='E11' where IDCARD='None'
 新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
 </t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='N03'</t>
-        </is>
-      </c>
-      <c r="D71" s="19" t="n"/>
-      <c r="E71" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS007</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n"/>
-      <c r="G71" s="19" t="inlineStr">
-        <is>
-          <t>慢性肾脏病已患='是' or 慢性肾脏病高危='是'</t>
-        </is>
-      </c>
-      <c r="H71" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'慢性肾脏病'</t>
-        </is>
-      </c>
-      <c r="I71" s="14" t="inlineStr">
-        <is>
-          <t>低蛋白饮食</t>
-        </is>
-      </c>
-      <c r="J71" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K71" s="5" t="n"/>
-      <c r="L71" s="9" t="n"/>
-    </row>
-    <row r="72" ht="84" customHeight="1" s="16">
-      <c r="A72" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B72" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='None'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=66</t>
-        </is>
-      </c>
-      <c r="D72" s="19" t="n"/>
-      <c r="E72" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS007</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="n"/>
-      <c r="G72" s="19" t="inlineStr">
-        <is>
-          <t>慢性肾脏病已患='是' or 慢性肾脏病高危='是'</t>
-        </is>
-      </c>
-      <c r="H72" s="19" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'慢性肾脏病'</t>
-        </is>
-      </c>
-      <c r="I72" s="14" t="inlineStr">
-        <is>
-          <t>低蛋白饮食</t>
-        </is>
-      </c>
-      <c r="J72" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K72" s="5" t="n"/>
-      <c r="L72" s="9" t="n"/>
-    </row>
-    <row r="73" ht="84" customHeight="1" s="16">
-      <c r="A73" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B73" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='310101202308070003'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I60'</t>
-        </is>
-      </c>
-      <c r="D73" s="19" t="n"/>
-      <c r="E73" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS008</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n"/>
-      <c r="G73" s="19" t="inlineStr">
-        <is>
-          <t>脑卒中已患='是' or 脑卒中高危='是'</t>
-        </is>
-      </c>
-      <c r="H73" s="19" t="inlineStr">
-        <is>
-          <t>已患疾病包含'脑卒中'</t>
-        </is>
-      </c>
-      <c r="I73" s="14" t="inlineStr">
-        <is>
-          <t>减少膳食盐、油、糖、脂肪摄入</t>
-        </is>
-      </c>
-      <c r="J73" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K73" s="5" t="n"/>
-      <c r="L73" s="9" t="n"/>
-    </row>
-    <row r="74" ht="409.5" customHeight="1" s="16">
-      <c r="A74" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B74" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_PREVIOUS_HISTORY set ASSESS_ID where IDCARD='310101202308070003'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_PREVIOUS_HISTORY,ASSESS_ID,MSG_CODE='JB002'.and. ASSOCIATION_TYPE='01'
-r1,T_ASSESS_PREVIOUS_HISTORY,ASSESS_ID,MSG_CODE='JB001'.and. ASSOCIATION_TYPE='01'
-r1,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I48'</t>
-        </is>
-      </c>
-      <c r="D74" s="19" t="n"/>
-      <c r="E74" s="19" t="inlineStr">
-        <is>
-          <t>GY_YS008</t>
-        </is>
-      </c>
-      <c r="F74" s="11" t="n"/>
-      <c r="G74" s="19" t="inlineStr">
-        <is>
-          <t>脑卒中已患='是' or 脑卒中高危='是'</t>
-        </is>
-      </c>
-      <c r="H74" s="19" t="inlineStr">
-        <is>
-          <t>高风险疾病评估包含'脑卒中'</t>
-        </is>
-      </c>
-      <c r="I74" s="14" t="inlineStr">
-        <is>
-          <t>减少膳食盐、油、糖、脂肪摄入</t>
-        </is>
-      </c>
-      <c r="J74" s="19" t="inlineStr">
-        <is>
-          <t>饮食调养</t>
-        </is>
-      </c>
-      <c r="K74" s="5" t="n"/>
-      <c r="L74" s="9" t="n"/>
-    </row>
-    <row r="75" ht="135" customHeight="1" s="16">
-      <c r="A75" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B75" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='310101202308070003'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/310101202308070003, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=66
-r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I10'</t>
-        </is>
-      </c>
-      <c r="D75" s="19" t="n"/>
-      <c r="E75" s="19" t="inlineStr">
-        <is>
-          <t>GY_ZW001</t>
-        </is>
-      </c>
-      <c r="F75" s="19" t="inlineStr">
-        <is>
-          <t>自我管理</t>
-        </is>
-      </c>
-      <c r="G75" s="19" t="inlineStr">
-        <is>
-          <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'）and 高血压已患='是'</t>
-        </is>
-      </c>
-      <c r="H75" s="19" t="inlineStr">
-        <is>
-          <t>（高风险疾病评估包含'慢性肾病' ）and 已患疾病包含'高血压'</t>
-        </is>
-      </c>
-      <c r="I75" s="14" t="inlineStr">
-        <is>
-          <t>控制血压</t>
-        </is>
-      </c>
-      <c r="J75" s="19" t="inlineStr">
-        <is>
-          <t>自我管理</t>
-        </is>
-      </c>
-      <c r="K75" s="5" t="n"/>
-      <c r="L75" s="9" t="n"/>
-    </row>
-    <row r="76" ht="168" customHeight="1" s="16">
-      <c r="A76" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B76" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='None'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C76" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='N03' 
-r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='I10'</t>
-        </is>
-      </c>
-      <c r="D76" s="19" t="n"/>
-      <c r="E76" s="19" t="inlineStr">
-        <is>
-          <t>GY_ZW001</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n"/>
-      <c r="G76" s="19" t="inlineStr">
-        <is>
-          <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'）and 高血压已患='是'</t>
-        </is>
-      </c>
-      <c r="H76" s="19" t="inlineStr">
-        <is>
-          <t>（已患疾病包含'慢性肾病'）
-and 已患疾病包含'高血压'</t>
-        </is>
-      </c>
-      <c r="I76" s="14" t="inlineStr">
-        <is>
-          <t>控制血压</t>
-        </is>
-      </c>
-      <c r="J76" s="19" t="inlineStr">
-        <is>
-          <t>自我管理</t>
-        </is>
-      </c>
-      <c r="K76" s="5" t="n"/>
-      <c r="L76" s="9" t="n"/>
-    </row>
-    <row r="77" ht="135" customHeight="1" s="16">
-      <c r="A77" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B77" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_ASSESS_INFO set ID where IDCARD='None'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>r1,T_ASSESS_INFO,ID,AGE=66
-r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='E11'</t>
-        </is>
-      </c>
-      <c r="D77" s="19" t="n"/>
-      <c r="E77" s="19" t="inlineStr">
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>r2,T_HIS_DIAGNOSIS,DIAGNOSIS_CODE='N03'.and.DIAGNOSIS_CODE='E11'</t>
+        </is>
+      </c>
+      <c r="D78" s="24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="E78" s="25" t="inlineStr">
         <is>
           <t>GY_ZW002</t>
         </is>
       </c>
-      <c r="F77" s="10" t="n"/>
-      <c r="G77" s="19" t="inlineStr">
+      <c r="F78" s="11" t="n"/>
+      <c r="G78" s="25" t="inlineStr">
         <is>
           <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'） and 糖尿病已患='是'</t>
         </is>
       </c>
-      <c r="H77" s="19" t="inlineStr">
-        <is>
-          <t>（高风险疾病评估包含'慢性肾病' ） and 已患疾病包含'糖尿病'</t>
-        </is>
-      </c>
-      <c r="I77" s="14" t="inlineStr">
+      <c r="H78" s="25" t="inlineStr">
+        <is>
+          <t>（已患疾病包含'慢性肾病'） and 已患疾病包含'糖尿病'</t>
+        </is>
+      </c>
+      <c r="I78" s="14" t="inlineStr">
         <is>
           <t>控制血糖</t>
         </is>
       </c>
-      <c r="J77" s="19" t="inlineStr">
-        <is>
-          <t>自我管理</t>
-        </is>
-      </c>
-      <c r="K77" s="5" t="n"/>
-      <c r="L77" s="9" t="n"/>
-    </row>
-    <row r="78" ht="185" customHeight="1" s="16">
-      <c r="A78" s="20" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="B78" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">update T_HIS_DIAGNOSIS set IDCARD where IDCARD='None'
-新增评估, http://192.168.0.243:8011/server/qyyh/addAssess/None, {'msg': '系统异常，请联系系统管理员！', 'code': 500}
-</t>
-        </is>
-      </c>
-      <c r="C78" s="5" t="inlineStr">
-        <is>
-          <t>r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='N03' and r2,T_HIS_DIAGNOSIS,IDCARD,DIAGNOSIS_CODE='E11'</t>
-        </is>
-      </c>
-      <c r="D78" s="19" t="n"/>
-      <c r="E78" s="19" t="inlineStr">
-        <is>
-          <t>GY_ZW002</t>
-        </is>
-      </c>
-      <c r="F78" s="11" t="n"/>
-      <c r="G78" s="19" t="inlineStr">
-        <is>
-          <t>（慢性肾脏病已患='是' or 慢性肾脏病高危='是'） and 糖尿病已患='是'</t>
-        </is>
-      </c>
-      <c r="H78" s="19" t="inlineStr">
-        <is>
-          <t>（已患疾病包含'慢性肾病'） and 已患疾病包含'糖尿病'</t>
-        </is>
-      </c>
-      <c r="I78" s="14" t="inlineStr">
-        <is>
-          <t>控制血糖</t>
-        </is>
-      </c>
-      <c r="J78" s="19" t="inlineStr">
+      <c r="J78" s="25" t="inlineStr">
         <is>
           <t>自我管理</t>
         </is>

--- a/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
+++ b/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30640" yWindow="1520" windowWidth="33480" windowHeight="18660" tabRatio="730" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30640" yWindow="1520" windowWidth="33480" windowHeight="18660" tabRatio="730" firstSheet="2" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="说明" sheetId="1" state="visible" r:id="rId1"/>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="B3" s="270" t="inlineStr">
         <is>
-          <t>2023/10/18 15:30:37</t>
+          <t>2023/10/18 16:19:04</t>
         </is>
       </c>
       <c r="C3" s="188" t="inlineStr">

--- a/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
+++ b/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
@@ -1932,7 +1932,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2352,7 +2352,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="0" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -3050,7 +3050,7 @@
   </sheetPr>
   <dimension ref="A1:Z203"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="0" topLeftCell="G1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
@@ -9721,7 +9721,7 @@
   </sheetPr>
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="0" zoomScale="107" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="B3" s="270" t="inlineStr">
         <is>
-          <t>2023/10/18 16:19:04</t>
+          <t>2023/10/18 17:56:48</t>
         </is>
       </c>
       <c r="C3" s="188" t="inlineStr">
@@ -16046,7 +16046,7 @@
   </sheetPr>
   <dimension ref="A1:AC89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
@@ -22441,7 +22441,7 @@
   </sheetPr>
   <dimension ref="A1:AA133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -26665,7 +26665,7 @@
   </sheetPr>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -29843,7 +29843,7 @@
   </sheetPr>
   <dimension ref="A1:AC211"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="0" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -39159,7 +39159,7 @@
   </sheetPr>
   <dimension ref="A1:AD231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38:A54"/>
     </sheetView>

--- a/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
+++ b/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
@@ -26,7 +26,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="62">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -457,6 +457,11 @@
       <color rgb="00000000"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <color rgb="00ff0000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -794,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,6 +1597,18 @@
     <xf numFmtId="164" fontId="60" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9814,14 +9831,14 @@
       <c r="AA1" s="216" t="n"/>
     </row>
     <row r="2" ht="30" customHeight="1" s="236">
-      <c r="A2" s="191" t="inlineStr">
+      <c r="A2" s="271" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="B2" s="237" t="inlineStr">
-        <is>
-          <t>2023/10/18 08:42:26</t>
+      <c r="B2" s="270" t="inlineStr">
+        <is>
+          <t>2023/10/20 11:32:20</t>
         </is>
       </c>
       <c r="C2" s="188" t="inlineStr">
@@ -9892,7 +9909,7 @@
       </c>
       <c r="B3" s="270" t="inlineStr">
         <is>
-          <t>2023/10/18 17:56:48</t>
+          <t>2023/10/20 14:02:06</t>
         </is>
       </c>
       <c r="C3" s="188" t="inlineStr">
@@ -9954,14 +9971,14 @@
       <c r="AA3" s="101" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1" s="236">
-      <c r="A4" s="198" t="inlineStr">
+      <c r="A4" s="271" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="B4" s="239" t="inlineStr">
-        <is>
-          <t>2023/10/18 10:22:44</t>
+      <c r="B4" s="270" t="inlineStr">
+        <is>
+          <t>2023/10/20 14:35:43</t>
         </is>
       </c>
       <c r="C4" s="188" t="inlineStr">
@@ -10161,14 +10178,14 @@
       <c r="AA6" s="216" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1" s="236">
-      <c r="A7" s="191" t="inlineStr">
+      <c r="A7" s="271" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="B7" s="237" t="inlineStr">
-        <is>
-          <t>2023/10/18 08:43:22</t>
+      <c r="B7" s="270" t="inlineStr">
+        <is>
+          <t>2023/10/20 14:20:01</t>
         </is>
       </c>
       <c r="C7" s="188" t="inlineStr">
@@ -11058,14 +11075,14 @@
       <c r="AA19" s="216" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="236">
-      <c r="A20" s="198" t="inlineStr">
+      <c r="A20" s="271" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="B20" s="239" t="inlineStr">
-        <is>
-          <t>2023/10/18 10:22:59</t>
+      <c r="B20" s="270" t="inlineStr">
+        <is>
+          <t>2023/10/20 08:48:43</t>
         </is>
       </c>
       <c r="C20" s="188" t="inlineStr">
@@ -11265,14 +11282,14 @@
       <c r="AA22" s="216" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="236">
-      <c r="A23" s="191" t="inlineStr">
+      <c r="A23" s="271" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="B23" s="240" t="inlineStr">
-        <is>
-          <t>2023/10/18 08:46:18</t>
+      <c r="B23" s="272" t="inlineStr">
+        <is>
+          <t>2023/10/20 11:31:09</t>
         </is>
       </c>
       <c r="C23" s="188" t="inlineStr">

--- a/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
+++ b/instance/zyjk/CHC/rule/健康评估规则表自动化1.xlsx
@@ -1953,7 +1953,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col width="25" customWidth="1" style="205" min="1" max="1"/>
     <col width="48.6640625" customWidth="1" style="205" min="2" max="2"/>
@@ -2374,7 +2374,7 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1"/>
   <cols>
     <col width="18.1640625" customWidth="1" style="27" min="1" max="1"/>
     <col width="21.83203125" customWidth="1" style="27" min="2" max="2"/>
@@ -3073,7 +3073,7 @@
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="100" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="100" customHeight="1"/>
   <cols>
     <col width="33.83203125" customWidth="1" style="14" min="1" max="2"/>
     <col width="33.83203125" customWidth="1" style="10" min="3" max="3"/>
@@ -9743,7 +9743,7 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="9" customWidth="1" style="27" min="1" max="1"/>
     <col width="29.1640625" customWidth="1" style="27" min="2" max="2"/>
@@ -16068,7 +16068,7 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="33.83203125" customWidth="1" style="232" min="1" max="11"/>
     <col width="33.83203125" customWidth="1" style="232" min="12" max="16384"/>
@@ -22463,7 +22463,7 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
   <cols>
     <col width="33.83203125" customWidth="1" style="27" min="1" max="11"/>
     <col width="33.83203125" customWidth="1" style="27" min="12" max="16384"/>
@@ -26687,7 +26687,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="232" min="1" max="1"/>
     <col width="24.33203125" customWidth="1" style="232" min="2" max="2"/>
@@ -29866,7 +29866,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="66" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="66" customHeight="1"/>
   <cols>
     <col width="33.83203125" customWidth="1" style="165" min="1" max="6"/>
     <col width="33.83203125" customWidth="1" style="166" min="7" max="7"/>
@@ -39181,7 +39181,7 @@
       <selection pane="bottomLeft" activeCell="A38" sqref="A38:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="33.83203125" customWidth="1" style="232" min="1" max="1"/>
     <col width="33.83203125" customWidth="1" style="219" min="2" max="3"/>
